--- a/news_data/2018_07.xlsx
+++ b/news_data/2018_07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,66 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>[관광한국 빨간불] 제주도 갈 바엔 일본 간다</t>
+  </si>
+  <si>
+    <t>[마켓인사이트]롯데관광개발, 제주도 카지노업체 두성 434억에 인수</t>
+  </si>
+  <si>
+    <t>제주도 인기 관광지 1위는 '협재 해수욕장'</t>
+  </si>
+  <si>
+    <t>제주도, 국제 태권도대회 참가선수단 공영관광지 무료입장</t>
+  </si>
+  <si>
+    <t>한국관광공사 '웰니스 관광' 시설로 제주도 2곳 선정</t>
+  </si>
+  <si>
+    <t>[열린광장] 제주도 관광과 국제관함식에 대한 역발상</t>
+  </si>
+  <si>
+    <t>제주도의회 "과잉관광으로 주민 피해자 전락"…대책 촉구</t>
+  </si>
+  <si>
+    <t>제주도, 생태관광 전문인력 양성교육 실시</t>
+  </si>
+  <si>
+    <t>제주도 '관광행복택시' 도입..."여행이 편리해진다"</t>
+  </si>
+  <si>
+    <t>제주도 변사체 사건 후, 카라반 캠핑 관광 온 30대 여성 '또' 실종, 국민 청원...</t>
+  </si>
+  <si>
+    <t>제주도 작년 관광산업 2010년 이후 첫 마이너스 성장</t>
+  </si>
+  <si>
+    <t>여름철 관광지 검색 1위 '해수욕장'…강원도·제주도 인기</t>
+  </si>
+  <si>
+    <t>제주도 실종에 사망 사고까지? 관광객들 '불안'</t>
+  </si>
+  <si>
+    <t>제주도, 관광객에 '환경보전기여금' 부과 추진</t>
+  </si>
+  <si>
+    <t>제주도관광협회-카자흐스탄관광협회, 우호교류협약 체결 확대</t>
+  </si>
+  <si>
+    <t>제주도, 중국개별관광객 유치위해 전방위 마케팅 나선다</t>
+  </si>
+  <si>
+    <t>유명 관광지에서 만나는 갈치조림. 제주도 에코랜드 맛집 옛집2</t>
+  </si>
+  <si>
+    <t>제주도, 관광객에 환경보전기여금 부과 추진</t>
+  </si>
+  <si>
+    <t>제주도관광협회 숙원 ‘제주종합비지니스센터‘ 개관</t>
+  </si>
+  <si>
+    <t>경주시, 제주도 찾아 관광 홍보활동 펼쳐</t>
+  </si>
+  <si>
     <t>제주도·제주관광공사, 청춘감독 콘테스트 시상</t>
   </si>
   <si>
@@ -52,34 +112,85 @@
     <t>제주도관광협회, 5·6월 베스트관광인 선정</t>
   </si>
   <si>
-    <t>제주도·제주관광공사, 청춘감독 콘테스트 시상 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도·제주관광공사, 청춘감독 콘테스트 시상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도·제주관광공사, 청춘감독 콘테스트 시상 기자명 고영진 기자 입력 2018.07.15 14:15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주관광공사(JTO)는 13일 제주웰컴센터 대회의실에서 '제주축제영상공모전-청춘감독콘테스트' 시상식을 개최했다. 이번 공모전은 지난 4~6월 봄 축제를 담은 1~3분짜리 영상을 만드는 방식으로 진행됐으며, 모두 51편이 접수됐다.이달 초 심사를 거쳐 총 8개 팀을 선정했으며, 대상은 '제주축제 같이 갈래요'가 받았다.이 작품은 젊은 여성 3명이 가파도 청보리 축제와 삼다공원 야간콘서트를 여행하는 모습에 내레이션과 자막을 입혀 보는 사람을 즐겁게 만든다는 평을 받았다.최우수상은 '해녀의 첫 축제'가 수상했다. 이 작품은 해녀의 시선에서 보는 제주의 축제라는 신선한 아이디어와 영상미가 돋보인 작품이라는 평가다.이외에도 '제주 별을 보다' '제주 콜라보레이션' '꽃길만 가시리' '꽃보러 제주' '지금, 제주', '제주에서의 하루' 등 트렌드를 반영한 감각적인 영상 6편이 수상의 영광을 안았다.대상팀의 박초혜씨(27·경기)는 "저희들만의 버킷리스트로 제주여행을 하면서 영상공모전에도 참여해보자 한건 데 대상을 수상할 줄은 꿈에도 몰랐다"며 "마치 꿈만 같고 너무 기쁘다"고 수상소감을 전했다.     JTO 관계자는 "다양한 아이디어와 스토리로 좋은 영상이 많이 들어와서 심사하는데 어려움이 있었다"며 "접수된 작품과 수상작은 유튜브에서 제주축제영상공모전을 검색하면 볼 수 있다"고 말했다.한편 도와 JTO는 제주축제영상공모전 2탄으로 '하태감독 콘테스트'를 진행하고 있다. 7월부터 9월까지 열리는 여름 축제를 담은 영상을 제작하면 되며, 모집기간은 9월 30일까지다. 고영진 기자 kyj@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회-카자흐스탄관광협회, 신규 우호교류협약 체결 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회-카자흐스탄관광협회, 신규 우호교류협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회-카자흐스탄관광협회, 신규 우호교류협약 체결 기자명 고병수 기자 입력 2018.07.16 18:08 수정 2018.07.16 18:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 김영진 제주도관광협회장은 중앙아시아 잠재시장 교두보 구축을 위해 17일~ 21일까지 카자흐스탄관광협회(회장 쉐이케노바 라쉬다)와 관광ㆍ문화ㆍ스포츠 교류 활성화를 위한 신규 우호교류협약 체결을 위해 카자흐스탄 알마티를 방문한다고 16일 밝혔다.카자흐스탄은 2014년 11월부터 양국간 무비자 협정에 따라 최근 연평균 27.1%의 카자흐스탄 방한관광객이 증가 하는 등 높은 성장세를 유지하고 있는 해외여행 잠재력이 높은 국가다. 2017년 10월기준으로 방한한 관광객은 3만6967명으로 전년 3만4068명에 대비 8% 증가하고 있는 등 최근 3년간 27.1% 방한 관광객이 증가하고 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 중국 개별관광객 유치 강화...온․오프 전방위 마케팅 추진 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 중국 개별관광객 유치 강화...온․오프 전방위 마케팅 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 중국 개별관광객 유치 강화...온․오프 전방위 마케팅 추진 기자명 고병수 기자 입력 2018.07.09 13:17 수정 2018.07.09 13:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 상하이 개별관광설명회 개최 및 뷰티풀로드 촬영 영상홍보 (제주=국제뉴스) 고병수 기자 = 지난해 사드사태 이후 급감했던 제주방문 중국 관광객이 지난 4월부터 유턴해 증가 추세로 전환함에 따라 제주도가 온․오프 전방위 마케팅 추진에 나선다.제주특별자치도는 중국 관광객이 개별관광객(FIT)를 중심으로 증가추세를 보이고 있는 등 중국 관광객들의 제주 방문 재개가 가시화됨에 따라 개별관광객 유치 활성화를 위한 전방위 마케팅을 추진한다고 9일 밝혔다. 道에 따르면 전년동기대비 1월 –83.7%, 2월 – 81.8%, 3월 –51.8%, 4월 52.7%, 5월 58.0%로 증가 추세라는 것.이에 중국 현지 유명 온라인 방송프로그램인 '뷰티풀로드(Beautiful Road)'의 제주 촬영을 지원해 총 8회(8~10분) 분량의 영상을 제작해 오는 7월 25일부터 9월 25일까지 2달 간 아이치이(愛奇藝), 소후(搜狐), 웨이보(微博) 등을 통해 방송할 예정이다. 이번 홍보 영상은 제주에서 2박 3일간 현지인과 어울려 여러 가지 체험을 하면서 새로운 친구, 사람들과 어울리는 뉴 라이프 체험을 컨셉으로 진행되는 등 중국 개별관광객의 다양한 관광욕구를 채워 줄 수 있을 것으로 전망되고 있다. 이에 앞서 지난 6월말에는 상하이에서 'Talk Talk JEJU, 제주 백문백답'을 주제로 관광설명회를 개최해 일반 소비자 130여명을 대상으로 직접 제주의 관광 매력을 소개해 참가자들로부터 큰 호응을 얻었다.또한 중국 여행정보검색 1위 사이트인 '마펑워'와 협의를 통해 제주방문 중국인 개별관광객들의 선호도, 관광패턴 분석을 위한 빅 데이터를 공유하기로 하고, 이를 바탕으로 제주관광의 질적성장 실현을 위해 상호 협력해 나가기로 한 바 있다.   관계자는 "중국인 해외 개별관광객의 80%가 빠링허우, 지우링허우 (8090년생)세대일 정도로 20~40대 젊은층이 해외여행을 주도함에 따라 그들에게 맞춤형 정보제공 및 홍보를 위한 마케팅을 지속적으로 추진하고 FIT·SIT 유치 활성화를 통해 중국 시장 체질개선을 위한 노력을 해 나가겠다"고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도‧제주관광공사, 관광 아카데미 상반기 수료식 개최 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도‧제주관광공사, 관광 아카데미 상반기 수료식 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도‧제주관광공사, 관광 아카데미 상반기 수료식 개최 기자명 고병수 기자 입력 2018.07.09 15:47 수정 2018.07.09 15:52 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 제주관광공사(사장 박홍배)는 제주관광 아카데미 상반기과정 수료식을 7일 오전 10시 제주웰컴센터 3층 대회의실에서 개최했다고 9일 밝혔다.2018년 제주관광 아카데미는 기존 제주관광 공통 교육과정인 기본과정 외에 전문가과정 및 글로벌과정을 새롭게 추가해 기본(정규)→전문가(신규)→글로벌(신규)의 단계별 교육 프로세스를 통해 체계적인 관광 전문교육을 추진해왔다.지난 4월 5일부터 7월 7일까지 매주 토요일 총 68시간에 걸쳐 진행된 이번교육은 제주의 역사, 자연, 문화 등 제주관광 공통 교육과정을 시작으로 지역의 콘텐츠 자원을 활용한 관광 상품 개발, 무슬림 및 동남아 관광객 유치를 위한 글로벌 제주 마케팅 등 심도있는 수업을 통해 교육생으로부터 좋은 반응을 얻었다.특히 7일 진행된 제주관광 아카데미 글로벌과정 체험교육에서는 수강생들이 이슬람 기도실인 마스지드를 방문해 김원택 이맘(이슬람 성직자)이 풀어내는 이슬람 이야기를 경청하고, 도내 무슬림 학생들이 준비한 할랄 음식 체험 등 이슬람 문화를 이해하는 시간을 가졌다. 한편 제주관광 아카데미 상반기 과정은 기본과정 31명, 전문가과정 32명, 글로벌과정 28명의 수강생을 배출했으며, 이들 중 전 과정 수료 대상자는 17명이다.제주관광 아카데미는 상반기 1회, 하반기 1회 진행되며, 오는 9월부터 11월까지 하반기 과정을 운영할 예정이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 카자흐스탄관광협회와 우호교류협약 체결 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 카자흐스탄관광협회와 우호교류협약 체결 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회, 카자흐스탄관광협회와 우호교류협약 체결 편집팀 iheadline@hanmail.net 승인 2018.07.16 18:39 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 김영진 제주특별자치도관광협회장. 김영진 제주특별자치도관광협회장은 중앙아시아 잠재시장 교두보 구축을 위해 17일부터 21일까지 카자흐스탄 알마티를 방문해 카자흐스탄관광협회와 관광.문화.스포츠교류 활성화를 위한 우호교류협약을 체결한다고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 관광버스 쏠라티로 떠나는 여행 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-04 10:25 (화) 처음으로 로그인 회원가입 이전 다음 제주도 관광버스 쏠라티로 떠나는 여행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME IT&amp;생활 제주도 관광버스 쏠라티로 떠나는 여행 홍채희 기자 승인 2018.07.06 11:25 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도는 가족끼리, 친구끼리, 연인끼리 방문하기 좋은 여행지이며, 볼 거리 먹 거리 즐길 거리가 다양한 곳이다. 제주도에 가면 올레길을 걷거나, 해안도로 드라이브를 할 수 있고, 바닷가에서 해수욕을 즐길 수도 있다. 한라산 등반을 하는 사람도 많은데, 여행지가 굉장히 다양하고 호텔, 펜션 등도 역시 다양하다.제주도에 갈 때는 개인으로 자유여행을 가는 경우도 많고, 아는 사람끼리, 혹은 단체로 관광을 가는 경우도 많다. 단체로 떠날 경우 비용이 더 절감될 수 있으며, 직접 운전하고 숙박 항공 등을 알아볼 필요 없이 편하게 제주도를 둘러볼 수 있다.특히 가족끼리 제주도여행을 갈 때 제주도 관광버스를 타고 움직이는 게 편한데, 단체여행은 가족단위로 떠날 때 유용하므로 다 같이 유명 관광지를 둘러보고, 유명 맛집을 둘러보기 좋다.이 가운데 제주도 쏠라티는 단체여행 프로그램을 제공 중이다. 해당 프로그램 이용 시 제주도 버스투어를 통해 가봐야 할 곳을 놓치지 않고 다녀올 수 있다. 제주도는 관광지가 많아서 유명한 곳만 골라서 가도 3박4일 이상의 일정이 소요된다. 그래서 혼자 코스를 짜는 게 어려울 수 있으며, 여행 동선에 맞춘 식당, 숙소를 결정하기 어려울 수 있다. 제주도 관광버스를 타고 단체로 여행을 가면 놓쳐서는 안 될 곳을 꼭 들를 수 있으며, 직접 운전하거나 대중교통을 이용할 필요가 없어 편안하게 이동하고 고급스러운 숙박시설에서 머물 수 있다. 그러면서도 비용 절감이 되므로 특히 부모님들 효도 관광을 보내드리거나, 결혼 후 양가 집안이 다 같이 여행을 갈 때 적합하다.제주도 쏠라티는 다양한 관광 프로그램을 제공하고 있으며, 일정에 맞는 알찬 계획을 통해 제주도 여행 후 좋은 추억을 남길 수 있게 도와주고 있다. 자세한 사항은 대표번호, 블로그, 제주도홍반장 검색을 통해 확인할 수 있다. 저작권자 © 데일리시큐 무단전재 및 재배포 금지 홍채희 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 [PASCON 2022] 하반기 최대 정보보호 컨퍼런스...9월 28일 개최, 사전등록 접수중 [PASCON 2022] 하반기 최대 정보보호 컨퍼런스...9월 28일 개최, 사전등록 접수중 2 조직화된 서비스형 랜섬웨어 위협 급증...종합적인 대응 필요 조직화된 서비스형 랜섬웨어 위협 급증...종합적인 대응 필요 3 [CPS보안워크숍] 정현철 PM “해커들 공격 억제위해 공세적 대응기술 발전시켜야” [CPS보안워크숍] 정현철 PM “해커들 공격 억제위해 공세적 대응기술 발전시켜야” 4 “국내 랜섬웨어 피해기업 80%가 중소기업...64%는 백업도 안 해” “국내 랜섬웨어 피해기업 80%가 중소기업...64%는 백업도 안 해” 5 우버, 최근 보안 침해에 대해 삼성·시스코·MS 등 공격한 ‘랩서스’ 해킹 그룹 비난 우버, 최근 보안 침해에 대해 삼성·시스코·MS 등 공격한 ‘랩서스’ 해킹 그룹 비난 오늘이 주요뉴스 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 긴급속보 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 정책 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 긴급속보 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 아울시스템즈, ‘국방보안 컨퍼런스'에서 신제품 및 파트너사 제품 소개 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 아울시스템즈, ‘국방보안 컨퍼런스'에서 신제품 및 파트너사 제품 소개 보안자료 2022년_상반기_악성코드_은닉사이트_탐지_동향_보고서(KISA) 개인정보보호위원회, 개인정보의 기술적 관리적 보호조치 기준 개정 해설서(2022.8.) 금융보안원-전자금융과 금융보안 제29호 아동·청소년 개인정보 보호 가이드라인(2022.7, 제정) 정보보호 해외진출 전략거점 월간 주요동향(2022년 7월) 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
-  </si>
-  <si>
-    <t>[미식산책] 제주도 여름철 인기관광지 해수욕장과 보양식 여행 &lt; 비즈 &lt; 기사 &lt; Food &lt; 기사본문 - 소믈리에타임즈 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-04 10:25 (화) 로그인 로그인 회원가입 전체메뉴 버튼 Wine Food Drink Life People TV 칼럼 미수입 와인 행사/Event 전시/박람회 기사검색 검색 실시간 랭킹 1 [이대형 박사의 알기 쉬운 전통주 브리핑] 우리 술을 알리는 대표주자 ‘전통주 소믈리에’ 2 SIAL Paris 2022, 올해의 혁신 식품 트렌드는 '건강 &amp; 즐거움 그리고 사회적 책임' 3 바롤로 크뤼와 아트 라벨, 이탈리아 피에몬테 와인의 탑 티어 '비에띠(Vietti)' 4 고추장부터 김치까지, 2022 미국의 여름 시즌 '소스' 트렌드 5 토마스 제퍼슨의 보르도 와인 사랑을 탐구하는 다큐멘터리 ‘Eastbound Westbound’ 6 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국와인축제 개최 7 국산 수수, ‘한국형 고량주’로 변신 8 2022년 '제9회 한국와인대상' 9월 30일 개최! 9 메종 멈(Maison Mumm), '우주여행’을 위한 샴페인 출시 10 캘리포니아 와인 업계 혁신의 대명사 '션 태커리'의 숨겨진 보석 5종, 국내 최초 공개 더보기 본문영역 이전 기사보기 다음 기사보기 [미식산책] 제주도 여름철 인기관광지 해수욕장과 보양식 여행 본문 글씨 줄이기 본문 글씨 키우기 바로가기 다른 공유 찾기 스크롤 이동 상태바 현재위치 홈 Food 기사 기자명 김경현 기자 입력 2018.07.12 09:04 수정 2018.07.12 17:20 [미식산책] 제주도 여름철 인기관광지 해수욕장과 보양식 여행 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 기사스크랩하기 메일보내기 닫기 최근 한국관광공사에서 발표한 결과에 따르면, 여름철 우리나라 국민이 가장 좋아하는 관광지는 해수욕장으로 밝혀졌다. 전국 해수욕장 50곳 중 협재해변이 포함된 제주도가 상위권을 기록했다. 맛집으로는 계절 보양식이나 여름특화 음식점들이 지역별로 인기 목적지로 나타났다.제주시 공항 근처 노형동에 위치한 ‘착한집’은 고단백 보양식 메뉴인 ‘갈갈조림’ 원조 맛집이다. 제주갈치와 흑돼지갈비를 함께 넣고 조린 갈갈조림은 착한집의 대표메뉴로 제주도민 사이에서도 크게 인기를 끌고 있으며, 여름철 보양식으로도 안성맞춤이다. ▲ 제주도 여름철 인기관광지 해수욕장과 보양식 &lt;사진=제주 착한집&gt;'50년 갈치인생'을 슬로건으로 내세우는 제주도 맛집 착한집의 대표는 제일 싱싱한 갈치만을 제공한다는 자부심이 대단하다. 그는 매일 직접 공수해온 제주 은갈치와 고등어, 옥돔, 전복, 흑돼지를 신안 명품 천일염을 사용해 귀한 손님께 대접하는 마음으로 주문과 동시에 조리한다고 밝혔다.제주도 자연산 식재료를 회, 구이, 조림 등으로 다양하게 즐길 수 있는 착한집은 제주시 공항 근처에 위치해 제주도 여행의 첫 일정 또는 마무리 일정으로 선택하기 편리하다. 제주공항 맛집 착한집은 대형 주차공간은 물론 넓은 규모의 단체석이 준비되어 있으나 웨이팅이 길어 사전예약은 필수다. 착한집은 홈페이지 예약 후 방문하면 고등어구이 무료제공 이벤트를 진행 중이다.소믈리에타임즈 김경현 기자 sultang100g@nate.com 김경현 기자 sultang100g@nate.com 다른 기사 보기 기사공유 저작권자 © 소믈리에타임즈 무단전재 및 재배포 금지 관련기사 오늘 굿데이, 서울 추억의 골목 맛집을 찾아라! 서울 토박이가 추천하는 진짜 맛집은? 남대문시장, 장충동, 을지로 맛집 제주맥주, 서울 연남동 팝업스토어 시작으로 전국 마케팅 본격화 맛있는 녀석들, 제주도 특집! 제주도에 가면 꼭 먹어야 할 음식은? 고기국수와 갈치구이 맛집 쟈뎅, ‘메타넷과 함께하는 장애인 바리스타 대회’ 공식 협찬 치즈 전문가가 추천한 치즈를 보관할 때 피해야 하는 3가지 방법은? 할리우드 A-리스트 여배우들이 먹는 식단은? ② 제시카 차스테인부터 에바 멘데스까지 최신뉴스 2022년 '제9회 한국와인대상' 심사위원단 [이건구 오늘 와인한잔] 와인 마실 곳을 찾아서, 청담동 '레스토랑 강민철' 2022년 제9회 한국와인대상 샤또 무똥 로칠드 '도멘 바로나크(Domaine de Baronarques)'의 세일즈 매니저 페린 쉐퍼(Perrine Schaeffer) 2022년 '제9회 한국와인대상' 9월 30일 개최! 포토뉴스 2022년 '제9회 한국와인대상' 심사위원단 [이건구 오늘 와인한잔] 와인 마실 곳을 찾아서, 청담동 '레스토랑 강민철' 2022년 제9회 한국와인대상 샤또 무똥 로칠드 '도멘 바로나크(Domaine de Baronarques)'의 세일즈 매니저 페린 쉐퍼(Perrine Schaeffer) 인기뉴스 1 [이대형 박사의 알기 쉬운 전통주 브리핑] 우리 술을 알리는 대표주자 ‘전통주 소믈리에’ 2 SIAL Paris 2022, 올해의 혁신 식품 트렌드는 '건강 &amp; 즐거움 그리고 사회적 책임' 3 바롤로 크뤼와 아트 라벨, 이탈리아 피에몬테 와인의 탑 티어 '비에띠(Vietti)' 4 고추장부터 김치까지, 2022 미국의 여름 시즌 '소스' 트렌드 5 토마스 제퍼슨의 보르도 와인 사랑을 탐구하는 다큐멘터리 ‘Eastbound Westbound’ 6 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국와인축제 개최 7 국산 수수, ‘한국형 고량주’로 변신 8 2022년 '제9회 한국와인대상' 9월 30일 개최! 오늘의 추천 [오늘의 추천] 라포스톨, 르 쁘띠 끌로 아팔타 2018 칠레에서 21세기의 가장 위대한 콜드 빈티지 중 하나로 기억될 것 [오늘의 추천] 알람브레 모스카텔 드 세투발 2017 대한민국 주류대상 주정강화 와인부문 대상 3회 수상 [오늘의 추천] 비에티, 모스카토 다스티 2021 모스카토 3대장 중 하나 인기 키워드 샴페인 미수입 와인 전통주 시음회 프랑스 양재혁 소믈리에 허브노트 미수입 와인 DOMAINE RICARDELLE DE LAUTREC, SAUVIGNON MARIN CUVEE RICARDELLE White Wine 와인리뷰 [알면 더 맛있는] 벨 꼴레(Bel Colle) 와인, 바롤로에 뿌리를 둔 떠오르는 신성 벨 꼴레 랑게 DOC 파보리타 2020, 벨 꼴레 바르바레스코 DOCG 빠요레 2018 [알면 더 맛있는] 라 크레마, "와인의 명성은 만들어지는 것이 아닌 얻어지는 것이다" 라 크레마 소노마 코스트 샤도네이, 피노 누아 2종 [알면 더 맛있는] 나파밸리의 이탈리안 해리티지 와인, '카모미' 4종 '카모미(Ca’Momi)' 4종 Photo [이건구 오늘 와인한잔] 와인 마실 곳을 찾아서, 청담동 '레스토랑 강민철' 2022년 '제9회 한국와인대상' 9월 30일 개최! [김대리가 소개한다] 붉은 단풍의 계절, 가을에 즐기는 대표 '샤또뇌프 뒤 빠프 와인' 추천 2022 세계 스테이크 챌린지, ‘일본 와규’ 대상 자치 행사/EVENT 품평회 2022년 제9회 한국와인대상 9월 30일, 영동와인터널, 10월 6일 시상식 축제 및 페스티벌 JW 메리어트 동대문 2022 와인 앤 버스커 10월 1일~3일, JW 메리어트 동대문 축제 및 페스티벌 2022 광명동굴 대한민국 와인페스티벌 9월 30일~10월 3일, 광명동굴에서 개최 축제 및 페스티벌 청라 뮤직 &amp; 와인 페스티벌 9월 24일~25일, 청라호수공원 야외음악당 일대 시음회 Bottleshock 1st Grand Tasting 9월 27일(화) 1부 14-17시, 2부 19-23시, 와인소셜(강남구) 전시 및 박람회 주류 베를린 바 컨벤트 2022(Bar Convent Berlin 2022, BCB) 2022년 10월 10일(월)~12일(수), Exhibition Centre Berlin 와인 프로바인(Prowein) 2023 2023년 3월 19일~23일, 독일 메쎄 뒤셀도르프(Messe Dusseldorf) 주류 2022 남도 전통주 품평회 수상작 특별전 8월 25일~28일, 전통주갤러리 주류 2022 서울바앤스피릿쇼 9월 15일~17일, 코엑스 3층 D홀 와인 2022 '대전국제와인페스티벌' 대전컨벤션센터(DCC), 8월 26일~28일 인기기사 [이대형 박사의 알기 쉬운 전통주 브리핑] 우리 술을 알리는 대표주자 ‘전통주 소믈리에’ SIAL Paris 2022, 올해의 혁신 식품 트렌드는 '건강 &amp; 즐거움 그리고 사회적 책임' 바롤로 크뤼와 아트 라벨, 이탈리아 피에몬테 와인의 탑 티어 '비에띠(Vietti)' 고추장부터 김치까지, 2022 미국의 여름 시즌 '소스' 트렌드 토마스 제퍼슨의 보르도 와인 사랑을 탐구하는 다큐멘터리 ‘Eastbound Westbound’ 론칭 및 프로모션 기사 캘리포니아 와인 업계 혁신의 대명사 '션 태커리'의 숨겨진 보석 5종, 국내 최초 공개 [와인&amp;피플] 샤또 무똥 로칠드가 쓰는 남프랑스 와인의 새로운 역사, 도멘 바로나크 보틀샤크, ‘OK금융그룹 박세리 인비테이셔널’ 골프 대회 공식 스폰서로 참여 및 성료 레뱅드매일 ‘스윙 쉬라즈’ 와인, 출시 1년 만에 GS25에서 50만병 판매 와인픽스, 가을맞이 슈퍼콘과 협업해 15% 할인권 판매 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울시 성동구 성수이로 24길 50 희은빌딩 별관4층 대표전화 : 02-499-0110 팩스 : 02-461-0110 청소년보호책임자 : 최염규 법인명 : 씨앤제이글로벌 제호 : 소믈리에타임즈 등록번호 : 서울 아 03477 등록일 : 2014년 12월 10일 발행일 : 2015년 3월 13일 발행인 : 최염규 편집인 : 김동열 소믈리에타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 소믈리에타임즈. All rights reserved. mail to stpress@sommeliertimes.com 위로 전체메뉴 전체기사 Wine Food Drink Life People 오늘의 추천 미수입와인 행사/EVENT 전시 및 박람회 와인리뷰 포토갤러리 로그인 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 中개별관광객 유치 관광사절단 파견 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 中개별관광객 유치 관광사절단 파견 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 中개별관광객 유치 관광사절단 파견 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.07.01 12:04 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 지난 27일부터 29일까지 3일 간 전성태 행정부지사를 단장으로 하는 제주 관광사절단이 중국북경과 상해시를 방문해 정부기관과의 관광관련 공동 협력방안을 논의했다고 밝혔다.이번 관광홍보 활동은 제주 방문 관광객이 다수를 차지하고 있는 북경과 상해지역 유관기관을 방문해 관광관련 정보를 공유하고 빅 데이터를 활용해 제주방문 중국관광객들에게 맞춤형 마케팅을 하기위해 추진됐다.27일에는 북경에 소재한 중국여유연구원을 방문해 따이빈(戴斌)원장과 면담을 갖고 제주방문 개별관광객 유치 활성화 방안과 관광통계분야 정보공유를 통한 공동협력 추진방안에 대해 논의했다.이 자리에서 전 부지사는 "중국여유연구원은 지난 2015년 제주연구원과 교류협력을 맺고 제주-중국과의 관광발전을 위해 많은 협력을 해오고 있다면서 중앙정부 연구기관으로 국가관광 데이터센터도 겸하고 있으므로 관광통계 분야 협력을 통해 제주관광발전을 위해 도움을 주실 것을 희망한다"고 전했다.따이빈 연구원장은 "이에 대해 제주가 갖고 있는 해양문화, 쇼핑, 올레코스, 자연환경 그리고 음식문화를 통한 중국관광객들에게 옛날전통과 현대문화를 결합한 제주다움을 잘 보여줄 수 있는 인프라구축이 필요하다면서 제주의 관광발전을 위해 도움을 줄 수 있는 방안을 모색해 나가는데 협력하겠다"고 답했다.29일에는 상해시인민정부를 방문해 천췬(陈群)부시장, 상해시여유국 청메이홍(程梅紅)부국장, 상해시 리우광용(劉光勇)외판 부주임과의 면담을 갖고 양 지역간의 상호발전을 위한 공동노력 방안에 대해 논의했다.전 부지사는 "상해시와 제주도는 2009년부터 우호도시로 교류하면서 청소년 교류 등 다양한 분야에서 교류를 하고 있는 지역으로 앞으로도 양 지역간의 상호교류가 활발하게 진행되기를 기대한다"면서 "제주도와 가까운 지역에 위치하고 있어 베이징 다음으로 제주를 찾는 관광객이 많은 상해시와 관광발전을 위해 상호간에 적극 협력해 나가기를 희망한다"고 말했다. 천췬 상해시 부시장은 "상해시도 관광객들이 많이 찾는 지역으로 관광발전에 많은 관심을 갖고 있으며 제주의 해외관광객 유치 마케팅 노하우를 벤치마킹하고 싶다"면서 "문화, 청소년, 인문 교류는 물론 양 지역간의 관광발전을 위한 공동 협력이 필요하다는데 공감한다"고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 관광객에 환경기여금 부과 추진...2020년 시행 예정 회원가입 로그인 YTN YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 통합검색 사이언스투데이 프로그램 캠페인 짤막과학 편성표 채널안내 방송정보 시청자코너 코로나19 날씨 ㆍ프로그램 다큐멘터리 드론히어로즈 : 국가대표 드론히어로즈 더 메이커스 브라보 K-사이언티스트 다큐S프라임 뷰티풀 코리아 교양정보 톡으로 나누는 과학 이야기, 과톡 성공 경영 키워드 ESG 코리아 성공팁 과학톡 최강기업 황금나침반 핫클립 베스트 ㆍ사이언스 스페셜 ㆍ기획 ㆍ해외 프로그램 ㆍ종방 프로그램 ㆍ핫클립 ㆍ카드뉴스 제주도, 관광객에 환경기여금 부과 추진...2020년 시행 예정 [2018-07-04 16:08:06] 목록 | 프린트 [앵커] 제주도가 자연환경 보전 등을 위해 관광객에게 이르면 2020년부터 '환경보전기여금' 을 부과하기로 했습니다. 숙박 시 1인당 천500원, 렌터카 하루 5천 원 등인데, 추진 과정에서 적잖은 논란이 예상되고 있습니다. 유종민 기자의 보도입니다. [기자] 제주도를 찾은 관광객은 2013년 처음으로 천만 명 시대를 연 이후 계속 늘어 지난해에는 천470만 명이 찾았습니다. 이렇게 관광객이 급증하면서 생활폐기물과 하수 발생량이 증가하고, 대기오염과 교통혼잡 등 환경처리비용이 지속해서 늘었습니다. 용역 결과 매년 2천790억 원의 생활폐기물 처리비용이 발생하고 있다고 나왔습니다. 이 때문에 수용 용량이 한계에 도달했다는 우려 속에 환경보전기여금 제도 도입 필요성이 제기돼 왔는데, 자연환경 보전을 위한 재원 마련을 위해 관광객에게 환경기여금을 부과하기로 했습니다. [고철주 / 제주도 환경정책과장 : 관광객과 관련 업계 등 설문조사와 의견을 들어본 결과 제도 도입이 필요하다. 기여금이 징수되면 제주 환경보전과 생태 관광을 활성화하고 여러 가지 환경 새선 사업에 쓰일 예정입니다.] 기본 부과금은 숙박 시 1인당 천500원, 렌터카 하루 5천 원 전세버스 이용요금에 5%를 부과할 예정입니다. 경차나 전기차는 50% 감면됩니다. 제도가 시행되면 관광객 1인당 평균 8,170원을 부담하게 됩니다. 제주도는 조례를 제정하고, 징수 시스템을 마련해 2020년부터 시행한다는 계획입니다. 하지만 제도 도입을 위해서는 제주특별법 개정을 통해 법적 근거를 마련해야 하고 다른 지역과의 형평성 문제 등으로 인해 적잖은 논란이 예상되고 있습니다. YTN 유종민[yoojm@ytn.co.kr]입니다. - Copyright ⓒ YTN science, 무단 전재 및 재배포 금지 - 과학기술정보통신부 과학기술정책연구원 고등과학원 한국과학창의재단 한국과학기술단체총연합회 한국원자력안전기술원 사이언스올 산업연구원 한국연구재단 한국과학기술기획평가원 한국과학기술원 광주과학기술원 한국원자력통제기술원 한국천문연구원 한국전자통신연구원 한국과학기술연구원 한국생명공학연구원 한국식품연구원 한국기초과학지원연구원 한국한의학연구원 한국기계연구원 기초과학연구원 한국화학연구원 한국철도기술연구원 한국항공우주연구원 한국원자력연구원 한국표준과학연구원 한국에너지기술연구원 한국과학기술정보연구원 한국해양과학기술원 한국과학기술한림원 한국건설기술연구원 한국지질자원연구원 대덕연구개발특구 한국생산기술연구원 한국전기연구원 한국재료연구원 국립과천과학관 한국여성발명협회 국립중앙과학관 한국발명진흥회 한국여성과학기술인육성재단 국립대구과학관 국립광주과학관 국립부산과학관 10.04.(화)| 강원도 경기도 경상남도 경상북도 광주광역시 대구광역시 대전광역시 부산광역시 서울특별시 세종특별자치도 울산광역시 인천광역시 전라남도 전라북도 제주특별자치도 충청남도 충청북도 현재 21.1℃ 오늘 오후 19℃ 내일 오전 13℃ 현재 18.7℃ 오늘 오후 19℃ 내일 오전 15℃ 현재 24.3℃ 오늘 오후 23℃ 내일 오전 19℃ 현재 23.3℃ 오늘 오후 22℃ 내일 오전 18℃ 현재 19.3℃ 오늘 오후 20℃ 내일 오전 15℃ 현재 23.3℃ 오늘 오후 22℃ 내일 오전 18℃ 현재 19.8℃ 오늘 오후 20℃ 내일 오전 15℃ 현재 24.3℃ 오늘 오후 23℃ 내일 오전 19℃ 현재 17.1℃ 오늘 오후 18℃ 내일 오전 15℃ 현재 19.8℃ 오늘 오후 20℃ 내일 오전 15℃ 현재 25.6℃ 오늘 오후 23℃ 내일 오전 18℃ 현재 17.1℃ 오늘 오후 18℃ 내일 오전 15℃ 현재 19.3℃ 오늘 오후 20℃ 내일 오전 15℃ 현재 18.5℃ 오늘 오후 20℃ 내일 오전 14℃ 현재 22.7℃ 오늘 오후 24℃ 내일 오전 19℃ 현재 19.8℃ 오늘 오후 20℃ 내일 오전 15℃ 현재 19.1℃ 오늘 오후 20℃ 내일 오전 15℃ 10:00한국사 과학탐 한국의 칼,과... 11:00사이언스 투데이 오전 (본) 11:30핫클립 베스트 &lt;32회&gt; (본) 2022년 YTN 사이언스 하반기 외주제작... [종료] YTN사이언스 구매 프로그램 공모 VOD TOP 5 "2030년 전기차 330만 대 생산...글로... 쌀가루용 쌀 '가루미'...밀가루 대체... 지질자원연, 다음 달 1일 달 관측 행... [영상] 유네스코 유산 제주 북오름굴·... 오늘부터 오미크론 대응 개량백신 접... UPDATE NEWS 에너지 전환, 생각의 전환 [다시보기] 9월 30일 (금) 오후 사이언... 주영창 본부장 "기술료제도 개선해 R&amp;D ... 기술 해외유출 규모 22조 원…연구자 가... 항암효과 높은 천연물질 합성하는 기술 ... YTN 사이언스 소개 TV광고 사업제휴 개인정보 취급방침 이용약관 청소년보호정책 공모/모집 안내 저작물 침해신고 성폭력 신고센터 인터넷 이용 도움말 시청자 프로그램 판매 사이트맵 CONTACT US 제호: YTN 사이언스 l 서울특별시 마포구 상암산로76(상암동) l 등록번호: 서울, 아54285 l 등록일자: 2022.06.03 발행일자: 2013.03.13 l 대표전화: 02-398-8000 l 발행인: 우장균 l 편집인: 김재형 l 청소년보호책임자: 정철민 [기사배열 기본방침] 모든 콘텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재 복사배포를 금합니다. Copyright ⒞ YTN science all rights reserved. Family Site YTN YTN2 YTN 라디오 YTN dmb 남산서울타워</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 5·6월 베스트관광인 선정 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:25 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 5·6월 베스트관광인 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 5·6월 베스트관광인 선정 문유미 기자 승인 2018.07.11 15:50 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이찬우, 박성훈. 제주특별자치도관광협회(회장 김영진)는 지난 10일 제주종합비즈니스센터에서 5월과 6월 베스트 관광인으로 박성훈 퍼시픽마리나 부장과 이찬우 ㈜탐라식품 본부장을 각각 선정하고, 선정패와 친절 키움 꽃 화분을 전달했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>[관광한국 빨간불] 제주도 갈 바엔 일본 간다 - 머니S 본문영역 바로가기 2022.10.11 | 12:36:24 [머니S포토] '못난이 농산물 더 살맛나네!' 더보기 [머니S포토] '못난이 농산물 더 살맛나네!'13분전 [머니S포토] 농협유통, '살 맛나는 울퉁불퉁 못난이 농산물 할인 판매'15분전 손흥민 "불평할 시간없다"… 1달에 10경기 강행군 돌입38분전 BBQ, 패밀리 가맹점과 손잡고 지역 상생 실천 앞장선다46분전 "♥윤남기 2세 언급에 찔려"… 이다은, ○○○ 고백을?47분전 광주, 8월 '제조업 생산·소매판매' 맑음…전남은 '흐림'1시간전 "간사 간 협의해라"… 감사원 국감, 개의 '8분'만에 파행1시간전 한국조선해양-두산퓨얼셀, '연료전지 대형선박' 실증 추진1시간전 르노코리아, 고객 서비스 강화… 10월 계약·11월 출고 고객에 푸짐한 혜택1시간전 연세우유 크림빵, '하루 6만개' 누적 1500만개 팔렸다1시간전 2022.10.11 기사표출기준 광고안내 독자의견 정기구독 MNB 머니바이크 하이하이 검색오픈 검색 검색 금융 은행 보험 증권섹션 재테크 정책일반 생활금융 증권 마켓 비즈니스 글로벌 재테크 가상화폐 산업 기업일반 IT 블록체인 자동차 항공물류 유통생활 정책일반 게임 의약/바이오 에너지/중공업 건설/부동산 업계일반 부동산시장동향 정책일반 재테크 생활문화 여행 맛집 출판 공연문화 교육,육아 건강 패션뷰티 이슈&amp; 창업현미경 브랜드소식 정책일반 핫이슈/트렌드 인물탐방 쇼핑몰뉴스 창업칼럼 연예 스타 드라마 예능 영화 뮤직 해외 일반 포토 스포츠 야구 해외야구 축구 해외축구 농구 배구 골프 일반 e스포츠&amp;게임 연재 정치/사회 정치 사회 지역 글로벌 인사 부고 전체 [관광한국 빨간불] 제주도 갈 바엔 일본 간다 머니S 박흥순 기자|조회수 : 15,993|입력 : 2018.07.30 06:21 기사공유 댓글남기기 폰트크게 폰트작게 프린트 해외여행 3000만 시대를 앞두고 우리 경제에 경고등이 켜졌다. 국내에 풀려야 할 돈이 해외로 새면서 내수시장에 비상이 걸렸기 때문. &lt;머니S&gt;는 해외여행 3000만 시대의 이면을 조명하는 한편 우리국민이 국내가 아닌 해외로 눈을 돌리는 속사정을 들여다봤다. 나아가 침체의 늪에 빠진 국내여행 활성화 방안을 살펴봤다. &lt;편집자주&gt;인천공항. /사진=뉴시스직장인 김철영씨(34)는 올 여름 휴가지로 일본 오키나와를 점찍었다. 3박4일 일정으로 항공권과 숙박을 예약하고 현지 여행계획을 세웠다. 예산은 대략 120만원. 여행경비 가운데 항공권이 40만원으로 전체 3분의1을 차지한다. 각종 기념품을 사는 데도 적지 않은 돈을 쓰기로 했다. 김씨는 “오키나와와 제주도를 비교했는데 비용에 큰 차이가 없었다”며 “대학 시절 일본에서 공부했는데 오랜만에 당시 기분을 느끼고 싶어 오키나와를 택했다”고 말했다. 이어 “같은 값이라면 국내보다 해외가 끌리는 게 당연하지 않나”라고 반문했다.김씨처럼 해외를 찾는 인구가 크게 늘었다. 지난해 2600만명을 넘어선 해외여행자 수는 올해 3000만명을 넘어설 것으로 관측된다. 과거 ‘있는 사람’의 전유물이던 해외여행은 이제 누구나 한번쯤 가는 ‘평범한 휴가’가 됐다. 해외여행객이 크게 증가한 원인은 ▲워라밸 문화 확산 ▲소득 증가 ▲여가의 질 개선 등이 꼽힌다. 하지만 가장 큰 원인은 따로 있다. 바로 비용이다. ◆“제주도 너무 비싸요”국내 최고의 관광지로 꼽히는 제주도의 물가는 상상을 초월한다. 관광객에게 인기있는 해물라면의 경우 1만~1만5000원, 갈치구이는 2인분에 6만원이다. 족발에 포함되는 막국수는 1인분에 1만2000원, 고등어조림은 3만원선이다.문제는 이런 비싼 요금이 음식에 국한되지 않는다는 점이다. 우선 성수기 자동차 렌트 비용은 4일에 40만원 수준이다. 대여료가 3시간 기준 10만원인 해안 평상의 경우 시간당 3만원이 넘는 요금을 내야 하지만 관광객은 울며 겨자 먹기로 이용할 수밖에 없다. 혹여 미리 준비한 파라솔을 펼 낌새를 보이면 주변 상인들이 득달같이 달려와 훼방을 놓는다. 이 같은 행위는 물론 불법이다./사진=뉴시스제주특별자치도 관계자는 “허가없이 시설물을 설치하면 원상복구명령을 내릴 수 있지만 영업기간이 두달 내외로 짧아 행정절차를 진행하다 보면 영업이 끝나는 경우가 많다”며 “점유한 면적도 넓지 않아 10만원 내외의 벌금 처분만 내리는 점도 불법시설물이 난립하는 원인”이라고 말했다. 이어 “제주도 물가가 비싼 것은 제주도의 특성상 재료·운송비 등 원가가 높기 때문”이라고 덧붙였다.하지만 최근 제주도를 다녀온 관광객 A씨(32)는 “제주도 물가가 비싸다는 것은 알았지만 갈치조림이 6만원인 것을 보고 깜짝 놀랐다”며 “가격도 문제지만 음식 맛도, 서비스도 형편없었다. 다시는 제주도를 찾지 않을 생각”이라고 말했다.관광객에게 혹평을 받는 제주도와 달리 해외관광지는 입소문을 타면서 폭발적인 인기를 누린다. 일본 오키나와, 베트남 다낭, 러시아 블라디보스토크 등 근거리 여행지는 물론 인도, 터키 등 과거에는 거리가 멀어 다소 부담스럽게 여겨지던 곳이 인기 해외여행지로 각광받는다.지난 7월 러시아 블라디보스토크에 다녀온 B씨(62)는 “이번 블라디보스토크 여행에 3박4일 동안 총 100만원을 썼다”며 “한국, 중국, 일본 등 동북아문화권과 다른 서양문화권을 저렴한 가격에 경험할 수 있어 만족했다”고 말했다. 그는 이어 “무엇보다 물가가 저렴한 점이 가장 좋았다. 같은 가격에 국내여행을 떠났다면 2박3일 일정에 그쳤을 것”이라고 전했다. ◆제주 갈치조림? 오키나와 스테이크!B씨의 말대로 최근에는 국내여행에 필요한 비용이 해외여행과 비슷하거나 더 많은 경우가 많다. 섬이라는 특수한 환경의 오키나와와 제주도를 비교해보면 실태를 알 수 있다.오키나와 슈리성. /사진=이미지투데이인천공항에서 오키나와까지 가는 교통편은 왕복 18만원선으로 구입할 수 있고 제주도는 왕복 7만원 수준에 예약이 가능하다. 일단 항공요금은 제주도가 저렴하다. 하지만 상황은 목적지에 도착하는 순간 역전된다. 오키나와에서 자동차 렌트 가격은 3박4일에 1만4000엔(약 14만2000원)인데 반해 제주도는 같은 등급의 자동차를 빌릴 경우 19만원에서 최대 40만원에 육박한다.숙박도 국내여행이 더 비싸다. 오키나와 최고의 5성급 호텔인 ‘하얏트 리젠시 나하 오키나와’의 준성수기 4박 가격은 90만원 수준인 반면 제주도 ‘하얏트 리젠시 제주’는 100만원이다.식대는 오키나와와 제주도가 큰 차이를 보이지 않는다. 오키나와의 인기 메뉴 중 하나인 스테이크는 2인분 4만~6만원이며 제주도의 인기메뉴인 갈치조림도 2인분에 6만원이다. 개인이 선호하는 취향에 따라 다르겠지만 통상 스테이크와 갈치조림값이 같다는 점은 납득하기 어렵다.이런 이유로 오키나와 여행보다 제주도 여행이 더 부담스러울 수 있다. 일부 관광객은 제주도의 비싼 물가를 비꼬면서 "꼭 성공해서 제주도 가겠다"는 우스갯소리도 하는 실정이다. 관광업계 관계자는 "1980~1990년대까지만 해도 해외여행은 부의 상징과 같았지만 저가항공이 등장하고 소득수준이 높아지면서 누구나 큰 부담 없이 다녀오게 됐다"며 "이제 많은 사람이 국내보다 해외로 눈을 돌리는 상황”이라고 말했다. 특히 젊은 세대를 중심으로 해외여행을 선호하는 경향이 강해 국내 유명관광지의 요금을 비싸게 받아도 올 사람은 다 온다는 말이 무색해졌다.☞ 본 기사는 &lt;머니S&gt; 제551호(2018년 8월1~7일)에 실린 기사입니다. 박흥순 soonn@mt.co.kr &lt;머니S&gt; 산업1팀 IT담당 박흥순입니다. 이 기자의 다른기사 보기 &gt; 공유 : 공감 0% 비공감 0% &lt;저작권자 ⓒ ‘성공을 꿈꾸는 사람들의 경제 뉴스’ 머니S, 무단전재 및 재배포 금지&gt; &lt;보도자료 및 기사 제보 (moneys@mt.co.kr)&gt; [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다" 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 랭킹뉴스 최신뉴스 추천뉴스 [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다"'암투병' 엄앵란, 근황 공개… "관절수술 후 거동 불편해"박시연, '음주운전' 이후 첫 공식석상… 손담비가 남긴 댓글은?무주 생일 모임 일가족 참사… 원인은 일산화탄소 중독?'친중행보 논란' 헨리, 빨갛게 부어 버린 얼굴… 대체 무슨 일?'부모 빚투 추방' 마이크로닷, 한국 왔나?… 닭발집서 근황 포착 [머니S포토] '못난이 농산물 더 살맛나네!'[머니S포토] 농협유통, '살 맛나는 울퉁불퉁 못난이 농산물 할인 판매'손흥민 "불평할 시간없다"… 1달에 10경기 강행군 돌입BBQ, 패밀리 가맹점과 손잡고 지역 상생 실천 앞장선다"♥윤남기 2세 언급에 찔려"… 이다은, ○○○ 고백을?광주, 8월 '제조업 생산·소매판매' 맑음…전남은 '흐림'"간사 간 협의해라"… 감사원 국감, 개의 '8분'만에 파행한국조선해양-두산퓨얼셀, '연료전지 대형선박' 실증 추진르노코리아, 고객 서비스 강화… 10월 계약·11월 출고 고객에 푸짐한 혜택연세우유 크림빵, '하루 6만개' 누적 1500만개 팔렸다 '12월 결혼' 티아라 지연♥황재균, 헬스장 데이트 '달달'18세 박유진, 전 재산 3만원인데… 한달 배달료만 80만원?한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥'최강희 근황, 시간당 1만원 고깃집 설거지 알바?'13세 나이 차' ♥정준과 결별설… 김유지 근황 보니?박수홍 응급실 실려갈 때… "'폭행' 父는 형수와 식사""하정우 슬퍼하더라"… 차현우♥황보라, 이미 법적 부부?'돌싱글즈3' 이소라, 안면 골절→응급실행… ♥최동환 "회복하자""아이폰을 입에?"… 지드래곤, 어마어마한 플렉스 면모YG "제니 개인사진 최초 유포자 경찰수사 의뢰" 코스피 : 2187.13 45.7112:29 10/11 코스닥 : 671.71 26.7812:29 10/11 원달러 : 1436.10 23.712:29 10/11 두바이유 : 96.51 2.1512:29 10/11 금 : 1675.20 34.112:29 10/11 재테크 [법률S토리] 과세특례 활용으로 절세해 볼까 머니S리포트 한화, 대우조선 이어 KAI도 품을까 BOOK [신간] 스타트업이 성장형 기업으로... 세계적 경영자의 동력과 신념 맛집로드 [맛집로드] 식탁 위에 펼쳐진 지속 가능한 미식, 비건 맛집 머니S 시리즈 기사들을 한자리에 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 美, 대중 반도체 규제에… 삼성전자·SK하이닉스 '약세' 한화건설, 14조 이라크 신도시 사업 공사비 떼여 철수 이전 다음 이전 다음 이전 다음 이전 다음 SLIDE[머니S포토] 2022 한은 국감, 마스크 고쳐쓰는 이창용 총재 SLIDE[머니S포토] 한은 이창용 "IMF 내 韓 외환보유고 적다는 인원 없어" SLIDE[머니S포토] 이창용 'PF·제2금융권 부실 현실화..."문제 될 수 있어"' SLIDE[머니S포토] 통화스와프 관련 질의 답하는 이창용 한은 총재 SLIDE[머니S포토] 한은 이창용 "물가 내년 1분기까지 5%대...하반기 내려갈듯" SLIDE[머니S포토] 2022 국회 기재위 국감, 답변하는 한은 이창용 총재 SLIDE[머니S포토] 안경 고쳐쓰는 이기식 병무청장 SLIDE[머니S포토] 국감 질의 받는 송선태·이기식 SLIDE[머니S포토] 이기식 "BTS, 군 복무 하는 게 바람직…공정성·형평성 제일 중요" SLIDE[머니S포토] 이기식 병무청장, 국회 국정감사 출석 SLIDE[머니S포토] 국감에서 질의 하는 이재명 대표 SLIDE[머니S포토] 국감 출석한 송선태 5.18민주화운동 진상규명조사위원장 SLIDE[머니S포토] 농협 이성희 "수확기 대비, 벼 매입자금 2조 1000억 투입" SLIDE[머니S포토] 농협 이성희 "쌀 산업 육성·소비 촉진에 410억 투입" SLIDE[머니S포토] 이성희 "중소농·청년농민 스마트팜 보급 및 디지털 농업 부문 투자 확대" SLIDE[머니S포토] 농협 이성희 "고향사랑기부제 시행 맞춰 농업·농촌 실익도아가도록 할 것" SLIDE[머니S포토] NH금융 손병환 "태양광 대출...사업장 관리 철저" SLIDE[머니S포토] 2022 농해수위 국감, 질의 답변하는 우성태 농협경제대표이사 SLIDE[머니S포토] 2022 농해수위 국감,질의 답변하는 권준학 농협은행장 SLIDE[머니S포토] 국회 농해수위, 농협중앙회·지주 계열사 등 2022 국정감사 SLIDE[머니S포토] 경찰청 윤희근 "법질서, 공동체 건강 유지하는 근간" SLIDE[머니S포토] 국회 행안위, 경찰청·도로교통공단 2022 국정감사 SLIDE[머니S포토] 2022 행안위 국감, 인사 나누는 윤희근·이만희 SLIDE[머니S포토] 윤희근 청장 "경찰, 스토킹 범죄 피해자 보호수단 마련에 집중" SLIDE[머니S포토] 경찰청 윤희근 "악성사기·마약류 범죄 등 범죄 척결에 총력" SLIDE[머니S포토] 윤희근 "부정부패 엄단..불법·폭력 치우침없이 법 집행" SLIDE[머니S포토] '수사기관 현장처우 개선' 전하는 윤희근 청장 SLIDE[머니S포토] 국수본 남구준 "김건희 여사 이력서, 사실과 일부 다른부분 있다" SLIDE[머니S포토] 2022 경찰청 국감, 질의 답변하는 남구준 국수본부장 [기자수첩] 기업 혁신 막는 규제, 이제 버릴 때가 됐다 소비자 안전·환경 등과 관련된 기업 규제는 엄격해야 한다. 반면 미래로 도약하기 위한 혁신만큼은 길을 열어줘야 발전 속도가 빠르고 세계시장을 주도할 수 있다.국내 기업은 규제에 발목이 잡혀 이 같은 논리와 늘 거리가 멀었다. 언제나 현실과 동떨어진 규제가 변화의 흐름을 끊고 발전을 막았다. 편리한 서비스를 원하는 소비자만 피해를 봤다.모빌리티 플랫폼 타다 사례가 대표적이다. 최근 서울중앙지방법원 형사항소1-1부(부장판사 장찬·맹현무·김형작)는 타다를 불법 운영한 혐의로 재판에 넘겨진 이재웅 전 쏘카 대표와 쏘카의 전 자회사 브이씨앤씨(VCNC)의 박재욱 전 대표에 대한 항소심 선고 공판에서 무죄를 선고했다. 이들에게 적용됐던 혐의는 "여객자동차운수사업법" 위반이다. 타다는 운전자가 딸린 11인승 승합차를 이용자에게 빌려주는 서비스다. 이용자는 타다 서비스 이용을 위해 스마트폰 애플리케이션(앱)으로 호출하면 된다. 타다의 운영사이자 과거 쏘카의 자회사였던 VCNC는 쏘카에게 렌.. [법률S토리] 과세특례 활용으로 절세해 볼까[고수칼럼] 계속되는 금리인상 폭탄… 시장이 내딛는 발걸음 따라가야[청계광장]노동기본권에 대한 발상의 전환[기자수첩] 네카오 보험 비교·추천, 이대로 괜찮을까? 제770호한화, 세계 최고의 방위산업체를 꿈꾸다 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 김승연에서 김동관으로… 대 잇는 'M&amp;A 승부사' DNA 새 판 짜는 한화, 중심엔 '김동관 리더십' 한화, 대우조선 이어 KAI도 품을까 제769호재개발·재건축 변함없는 '복마전' [르포] 인천 숭의5구역 'SK vs 두산', 시공사 선정 난항 [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 잠실 미성·크로바 벌금형 받은 '롯데건설'… 시공계약 유지할 수 있을까 제768호민간 주도 성장, 다시 뛰는 대한민국 '퍼펙트 스톰' 경고음… 돌파구는 '민간 주도 성장' 위기극복 팔 걷은 기업들… 한국 도약 이끈다 기업 끌고 정부 밀고… K-반도체, 공급망 주도권 쥔다 기업이 여는 '뉴 스페이스'… 민간 우주시대 활짝 "이번엔 K-원전"… 글로벌 시장 '정조준' 회사소개 정기구독 사이버몰이용약관 저작권규약 개인정보처리방침 광고안내 독자의견 머니앤밸류   서울시 종로구 청계천로 11(서린동, 청계한국빌딩)   제호: 머니에스   대표이사/발행인/편집인: 박정용등록번호:서울 아01082    등록일/발행일:2010.1.5    사업자등록번호 101-81-94590통신판매신고번호 제 01-1022호    호스팅사업자 주식회사 후이즈전자우편주소 moneys@mt.co.kr    Tel: 02-724-0959    청소년보호책임자: 강인귀 COPYRIGHT © MONEYS ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t>제주도 인기 관광지 1위는 '협재 해수욕장' :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 산업 산업최신 산업/기업 유통/생활경제 패션/뷰티 음식/맛집 창업/취업 자동차 항공 중기/벤처 해양수산 제주도 인기 관광지 1위는 '협재 해수욕장' 등록 2018.07.26 11:04:09 작게 크게 현대엠엔소프트, "1위 협재 해수욕장·2위 성산일출봉·3위 천지연폭포" 등 월정리 해변·이호테우 해변 등 '인생샷' 찍을 수 있는 사진 명소도 소개 【서울=뉴시스】박민기 기자 = 현대엠엔소프트는 지난해 7월부터 8월까지 두 달간 스마트폰 내비게이션 앱 '맵피'의 목적지 검색어 데이터 1000위를 분석해 '제주도 인기 여행지'를 26일 공개했다. 현대엠엔소프트의 분석 결과 사람들이 가장 많이 찾은 제주도 인기 여행지 1위는 '협재 해수욕장'인 것으로 드러났다. 협재 해수욕장은 조개껍질이 많아 은빛으로 반짝이는 백사장과 에메랄드빛 해변이 넓게 펼쳐져 있는 이국적인 분위기로 유명하다. 특히 한 눈에 보이는 비양도와 해질녘 붉은 노을이 장관을 이뤄 일몰 명소로도 잘 알려져 있다. 푸른 바다 사이에 성채와 같은 모습으로 우뚝 솟아 있는 '성산일출봉'이 2위를 차지했다. 성산일출봉은 해발 182m 높이에서 내려다보는 일출 광경이 아름다워 외국인 관광객들도 많이 찾는 관광지다. 3위는 제주도 서귀포의 3대 폭포 중 가장 큰 규모를 자랑하는 '천지연폭포'였다. 높이 22m, 너비 12m, 수심 20cm에 달하는 천지연폭포는 울창한 상록수에 둘러싸여 있어 시원한 폭포 소리와 함께 상쾌한 공기를 마실 수 있다. 이외에도 관광객들은 섭지코지, 에코랜드, 용두암, 주상절리, 만장굴 등의 장소를 많이 방문했다. 현대엠엔소프트는 제주도 여행의 추억을 아름다운 사진으로 남길 수 있는 '인생샷 명소'도 공개했다. 월정리 해변은 곳곳에 형형색색의 나무 의자가 있어 멋스러운 사진을 찍을 수 있고 제주도 인기 장소 9위에 오른 이호테우 해변은 몽환적인 분위기의 황금빛 노을을 배경으로 그림 같은 사진을 찍을 수 있다. minki@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 6내년부터 일시적 2주택자 취득 가산세 부담 완화 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 국제 태권도대회 참가선수단 공영관광지 무료입장 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 국제 태권도대회 참가선수단 공영관광지 무료입장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 국제 태권도대회 참가선수단 공영관광지 무료입장 기자명 고병수 기자 입력 2018.07.23 11:41 수정 2018.07.23 11:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 7월 '제주 코리아오픈국제태권도대회(7.18~7.24)'와 '2018 제주 세계태권도한마당(7.28~7.31)'이 제주에서 개최돼 16일부터 8월 5일까지 21일간 참가자를 대상으로 공영관광지 무료입장 및 시티투어 할인, 경기장내 이동관광안내소 운영 등  제주를 소개하기 위한 다양한 이벤트를 진행하고 있다고 23일 밝혔다.이번행사는 대회기간 중 62개국 3500여명이 제주를 방문할 것으로 예상하고 있는 가운데 대회에 참여하는 내외국인을 대상으로 제주를 소개하고 제주의 문화와 관광자원을 대외적으로 널리 알리고자 추진하고 있다.특히 대회기간을 맞아 2018 제주코리아오픈 국제태권도대회 조직위원회 및  제주 세계태권도한마당 조직위원회 발급 ID카드 소지자는 유료공영관광지 33개소 중 위탁 운영되는 곳 5개소를 제외한 28개소를 무료로 입장할 수 있다.무료입장 관광지는 제주도립미술관, 민속자연사박물관, 세계자연유산센터, 만장굴, 비자림, 제주돌문화공원, 교래자연휴양림, 제주해녀박물관, 현대미술관, 김창열미술관, 성산일출봉, 제주목관아, 노루생태관찰원, 절물자연휴양림, 제주별빛누리공원, 서귀포자연휴양림, 서귀포이중섭미술관, 기당미술관, 천제연폭포, 천지연폭포, 정방폭포, 주상절리대, 서복전시관, 산방산, 감귤박물관, 서귀포천문과학문화관, 붉은오름자연휴양림, 치유의숲 등이다. 이외에도 시티투어 할인으로 재래시장 방문 및 도심지 관광을 유도해 지역경제를 활성화하는 한편 道 관광협회는 대회기간동안 경기장내 이동형관광안내소를 운영해 참가자 편의를 제공한다.시티투어 할인은 기존요금에서 30%를 할인할 예정으로 1일요금제만 해당되며 버스탑승 후 ID카드를 제시해 할인된 요금으로 결제하면 된다.관계자는 "대회기간동안 제주를 방문하는 3500여명의 내,외국인 참가자들에게 편의제공과 더불어 입장객이 불편함이 없도록 주요관광지 안내 및 관광지 편의시설 점검, 직원 환대서비스 향상에도 만전을 기하고 관광지별 홈페이지 및 제주관광정보, SNS 등을 통해 이벤트 사항을 홍보하고 관광홍보안내소 및 안내센터 등을 통해 관광객 안내에 불편함이 없도록 할 계획"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>한국관광공사 '웰니스 관광' 시설로 제주도 2곳 선정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 한국관광공사 '웰니스 관광' 시설로 제주도 2곳 선정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 한국관광공사 '웰니스 관광' 시설로 제주도 2곳 선정 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.07.24 12:26 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 한국관광공사는 한국의 웰니스 관광 매력을 국내외에 널리 홍보할 대표적 시설로 지난해 25개소를 선정한 데 이어, 올해 8개소를 추가 선정했다고 24일 밝혔다.올해 선정된 곳은 제주도에서 '서귀포 치유의 숲'과 '한화리조트 스파테라피센터' 2곳이 포함됐다. '서귀포 치유의 숲'은 해발 320~760m에 위치하여 다양한 식생이 고루 분포하고 있는 제주도 숲의 매력을 활용해 전문 산림치유지도사가 함께하는 산림치유 프로그램을 운영하고 있다. ‘한화리조트 스파테라피센터’는 내츄럴 테라피, 와추 테라피, 디톡스 프로그램 등 다양한 매력적인 테라피 프로그램을 체험할 수 있는 힐링 스파시설이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[열린광장] 제주도 관광과 국제관함식에 대한 역발상 &lt; 사외 칼럼 &lt; 오피니언 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 오피니언 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 본문영역 이전 기사보기 다음 기사보기 [열린광장] 제주도 관광과 국제관함식에 대한 역발상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 오피니언 사외 칼럼 [열린광장] 제주도 관광과 국제관함식에 대한 역발상 기자명 고만식 입력 2018.07.25 19:18 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 고만식 제주특별자치도관광협회 국제여행업 제1분과위원장 대한민국이 먹고 살만해졌다. 주말과 휴일이면 전국 도로와 관광지가 여행인파로 북적인다. 제주도는 국내에서는 한때 1급 신혼여행지이자 수학여행지로 상징성을 지녔다. 산지가 대부분인 내륙과는 달리 도서지역 특성상 탁 트인 하늘과 바다가 이국적인 풍경을 자아낸다. 제주도의 자연환경은 여전히 아름답다. 그런데도 제주도 관광에는 먹구름이 드리웠다. 한국은행 제주본부가 발표한 관련 통계에 따르면 2014년 15%가 넘었던 제주도의 관광산업 성장률이 2015년과 2016년에 7%대로 반토막이 났다. 작년에는 중국 정부의 이른바 '사드 보복'으로 직격탄을 맞았다. 중국 관광객이 75%이상 급감했고, 2010년 이후 첫 마이너스(-6.1%) 성장이라는 최악의 성적표를 받았다. 2017년 국내 및 해외 여행객들을 대상으로 조사한 국내도시 인기 순위에서 제주도는 서울, 부산에 이어 3위에 그쳤다. 상징으로나 통계로나 제주도의 관광산업은 한계에 봉착했다. 다행스럽게도 도내에서 이러한 문제인식이 공유되고 있다. 최근 제주도청과 의회 등 지자체에서 제주도 관광산업의 '다변화, 질적 성장, 체질 개선' 필요성이 제기됐다. 그러나 이러한 구호가 의지와 실천으로까지 이어지는지를 점검해야 한다. 이러한 맥락에서 최근 우리 지역에 떠오른 이슈를 안타까운 마음으로 지켜본다. 해군이 10년마다 개최한다는 '국제관함식' 이야기다. 해군이 1998년과 2008년 모두 부산에서 개최하던 행사를 올해는 제주도에서 개최하려는 모양이다. 그 배경으로 내세운 '세계 평화'와 같은 해군의 원대한 꿈은 차치하고서도 '민군화합·상생'과 '지역경제 발전'에 대해서는 눈여겨 볼 필요가 있다. 우선 국제관함식은 그 명칭대로 국제행사이자 국가적 행사임에는 틀림없다. 70여개국 넘게 초청했고 예산도 36억이나 되니 규모면에서도 적지 않다. 그 내용은 5일간 국민들이 함께 해군함정을 시승하는 해상사열을 비롯해 기념공연, 부대개방, 함정공개, 불꽃축제행사 등 여느 지역 축제 규모는 될 법한 다양한 문화행사를 포함하고 있다. 더불어 이 기간 중에 국제회의 성격인 해군 심포지엄도 함께 열린다고 한다. 알다시피 국제회의산업은 관광산업의 꽃으로도 불린다. 해군은 2008년 당시 부산에서 열린 국제관함식을 통해 발생된 경제효과가 추산 가능한 것만으로도 100억이 넘는다고 설명한다. 그 내역 중 절반 이상이 외국장병의 개인소비였다고 한다. 배를 타고 우리나라에 온 '외국장병'들은 다른 말로 '외국관광객'이다. 당시 해군은 62개국을 초청했고 올해는 70여 개국을 초청했다고 하니, 이번에도 최소한 100억원 이상의 직접 효과가 기대된다. 그러나 이러한 단기간의 직접 효과보다 필자가 더 주목하는 것은 그동안 외쳐온 관광산업의 다변화를 실행할 만한 부수효과이다. 관광산업 다변화의 핵심 중 하나는 그동안 중국과 같은 특정 국가에만 의존해 온 관광산업을 다국가로 확장하자는 것이다. 실제로 작년에 중국 관광객이 줄어든 틈을 비집고 일본인 관광객이 오히려 증가했다. 게다가 국제관함식을 위해 우리나라에 오는 각국 해군 대표와 장병들은 모국에서의 사회경제적 지위가 낮지 않다. 이들은 그들 스스로 잠재적 고객이자 제주도를 전 세계에 대신 알려줄 홍보대사들이다. 보다 장기적인 관점에서 국제관함식은 제주도를 대표하는 축제로도 활용할 수 있다. 의도인지 실수인지 누군가는 '국제관함식(國際觀艦式)'을 '국제관함제(國際觀艦祭)'로 잘못 표현하는 것을 보았다. 오히려 거기에 답이 있다. 국제관함식을 해상사열식으로만 열지 말고 아예 '국제관함제'로 이름 붙이고 제주도와 해군, 유관기관들이 적극적으로 콜라보를 펼친다면, 민군이 함께하는 대한민국 최고의 모범 축제로 만들 수 있지 않을까? 여기까지 생각하면 국제관함식이 10년에 한번이라는 게 아쉬울 정도다. 현실로 돌아가서 올해는 제주도와 해군, 그리고 강정마을 주민이 준비가 덜 된 모양새다. 주민은 시기상조라고 하고, 제주도는 주민과 해군 뒤에 숨은 모양새다. 해군은 오도 가도 못해 발을 동동 구른다. 하지만, 정치 논리를 떠나 제주도의 경제 활성화와 실리를 생각한다면 답은 이미 나와 있다. 2018년에 제주도에서 국제관함식을 하지 못하면 2028년 제주에서의 '국제관함제'는 한 여름 밤의 꿈에 불과하다.  대한민국이 먹고 살만해졌다. 전국 관광지가 여행인파로 북적인다. 제주도가 대한민국의 1급 관광지로서의 명성을 되찾기 위해 역발상이라도 해야 할 때다. 고만식 webmaster@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 제주도민 2018-07-25 20:28:16 더보기 삭제하기 군인축제하고 돈 많이 벌어라! 제주도가 군대를 대상으로 장사질이나 하는 장사터냐? 천반한 자본주의 논리로 제주 관광의 질을 하락시키지 마라! 역발상이라는 말은 그럴 때 쓰는 말이 아니다! 상처 받은 사람들 삶의 터에서 뭔 짓을 하겠다는거냐? 사람을 먼저 생각해라! 그러니 제주관광이 발전이 안되지!!! 답글쓰기 2 3 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도의회 "과잉관광으로 주민 피해자 전락"…대책 촉구 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도의회 "과잉관광으로 주민 피해자 전락"…대책 촉구 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도의회 "과잉관광으로 주민 피해자 전락"…대책 촉구 송고시간2018-07-16 14:48 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 도의원 "연간 2천만명 변곡점" vs 제주도 "숫자보다 인프라 확충이 중요" (제주=연합뉴스) 변지철 기자 = 제주의 과잉관광 문제와 행정당국의 부서별로 제각각 추진되는 관리대책이 도의회에서 도마 위에 올랐다. 북적이는 제주 공항 [연합뉴스 자료사진] 제주도의회 문화관광체육위원회는 16일 제362회 임시회 제주도 관광국의 업무보고를 받는 자리에서 '오버투어리즘'으로 불리는 과잉관광 문제를 거론하며, 관광의 피해자로 전락한 지역주민을 위한 대책 마련을 촉구했다. 더불어민주당 강민숙 도의원은 "제주가 지난 4월 16일 영국 BBC 방송에 전 세계 오버투어리즘의 대표적 관광지 5곳 중 하나로 등장했다"며 "제주국제공항이 전 세계에서 가장 바쁜 공항이자 쓰레기·교통·상하수도 등에서 문제가 발생하고 있다는 내용이었다"고 말했다. 광고 그는 "문제는 제주도 관광국과 환경보전국, 세계유산본부 등 각 부서에서 추진하는 대책이 유사할 뿐만 아니라 수용력이나 입장료 인상 등 관광객 유입 제한에만 국한하고 있다"며 "질적 관광을 지향해야 하는 상황에서 관광의 피해자로 전락한 제주도민의 생활불편, 관광객과의 마찰, 마을문화의 정체성 훼손 등에 대한 대책 마련이 필요하다"고 주문했다. 관광객으로 북적이는 제주 성산일출봉 [연합뉴스 자료사진] 같은 당 문종태 의원도 "지난해 2월 제주관광공사에서 용역 의뢰한 '제주관광수용력 추정연구'를 보면 제주의 연간 관광객 2천만명이 중요한 변곡점으로 예측됐다"며 "앞으로 4∼5년, 길게는 10년 안에 제주관광의 물리·경제적 수용력이 한계에 도달하는 것으로 나오고 있다"고 문제를 제기했다. 이에 대해 양기철 제주도 관광국장은 "관광 수용력과 관련해서는 더 깊이 있고 체계적인 연구가 필요하지만, 현재 나온 연구는 기존 인프라 수준만으로 판단한 내용이라서 미진한 부분이 있다"며 "단순히 관광객 숫자만으로 수용력 문제를 논의하는 것은 바람직하지 않다"고 답했다. 이어 "제주도가 벤치마킹하는 싱가포르의 경우 제주도보다 8배 많은 관광객이 찾고 있지만, 오버투어리즘의 문제가 없다"며 "얼마만큼의 인프라로 대비하느냐의 문제이며 실국별로 인프라 확충을 위해 노력하고 있다"고 말했다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2018/07/16 14:48 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 21 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 생태관광 전문인력 양성교육 실시 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 생태관광 전문인력 양성교육 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도, 생태관광 전문인력 양성교육 실시 기자명 양경익 기자 입력 2018.07.24 11:08 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도는 오는 25일까지 제주생태관광지원센터에서 '2018년도 생태관광 전문인력 양성교육'을 진행하고 있다고 24일 밝혔다.이번 교육은 생태관광에 대한 이해를 도모하고 생태관광을 실질적으로 이끌 지도자를 양성해 지역사회의 활성화와 네트워크를 형성할 생태관광 인적자원 확보를 위해 마련됐다.이에 따라 제주도는 생태관광 관련 기관, 생태관광 사업경험자, 학계. 시민단체 등으로 전문 강사진을 구성하고 이론 강의 및 토론 형식으로 교육을 진행한다.또한 현장감 강화를 위해 다음달 1일부터 3일까지 2박3일간 현장실습도 있을 예정이다.제주도 관계자는 "올해 교육은 국제교류 사업 관련단체·기관 및 국제공적원조(ODA) 사업 관련자 10명을 대상으로 하는 특화교육"이라며 "이번 교육을 통해 제주 생태관광 국제교류 확대 및 제주와 개발도상국 사이의 우호협력, 상호교류 증진 및 국제협력에 기여할 것으로 기대된다"고 말했다. 양경익 기자 양경익 기자 yki@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 '관광행복택시' 도입..."여행이 편리해진다" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 '관광행복택시' 도입..."여행이 편리해진다" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 '관광행복택시' 도입..."여행이 편리해진다" 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.07.19 14:29 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주 관광객들에게보다 편안한 관광 서비스를 제공하기 위한 '관광행복택시'가 도입된다.제주특별자치도는 20일부터 관광행복택시 시범운영으로 홈페이지 개설 및 사전예약이 시작됨에 따라 인터넷과 전화로 관광행복택시 이용예약이 가능해 진다고 전했다.제주자치도와 개인.일반 택시운송사업조합이 보증하고 관리하는 관광행복택시는 사전 예약을 통해 배차되는 시스템으로 승객이 원하는 곳으로 운행되는 택시다. 관광행복택시는 평소 일반 택시로 운행하다 예약 및 배차가 되면 시간 대절 요금으로 운행하는 택시로올해 3월 어르신 행복택시, 4월 환승 행복택시 사업의 뒤를 이어 '제주 행복택시 3종 세트'의 마지막 사업이다.예약은 사전 예약제로 운영되며 전화(1899-7321) 또는 관광행복택시 홈페이지(www.jejutaxitour.co.kr)를 통해 이용 예약을 할 수 있다. 최소 3일전 예약해야 배차가 가능하며 콜센터는 평일 9시부터 18시까지 운영된다. 인터넷 예약은 제주도청 홈페이지에 마련된 제주관광행복택시 배너를 통해서도 가능하다. 제주도는 앞으로 예약 및 운영 상황을 모니터링 해 콜센터 운영시간을 점차 늘릴 계획이다.요금은 시간 정액운임제로 3시간 이하는 중형 5만원, 대형 8만원이다. 일일 9시간 이용 시 중형 기준 15만으로 5시간, 9시간에 따라 요금이 차등 구분되며, 1일 이상 예약 시 3시간 및 5시간 시간요금제 추가 계약이 가능하다. (요금 하단 첨부)특히 시간 대절택시 이용 시 일부 근거 없는 정액요금 요구에 따른 시비와 기사 불친절, 식당 및 판매점·관광지 알선에 따른 분쟁 등의 문제점 등을 해소하기 위해 마련된 관광행복택시는 친절하고 편리한 관광 택시의 활성화를 통해 신뢰성 및 투명성을 확보하고 제주특별자치도 관광 이미지를 제고해나가겠다는 전략이다. 제주도는 이번 관광행복택시 시범운영을 위해 운행 대상자를 모집하고 대형택시 48대·중형택시 298대 총 346명을 선발했으며 지난 6월 28일과 29일 이틀간에 걸친 교육을 해 기존 관행적인 알선 수수료 및 비용외 추가 현금 청구 금지, 친절 등의 내용의 교육을 실시했다. 이와 함께 지난 12일 관광행복택시 요금체계를 마련하고 이용요금을 고시했으며, 김포공항 등 관광안내소에 홍보 리플릿을 제작해 사전 홍보에도 박차를 가하고 있다. 8월에는 시범 운영 테스트 및 홍보기간을 거쳐 리플릿을 배부하고, 동영상 송출 및 방송 광고 등을 통해 관광 행복택시를 집중적으로 홍보키로 했다.또 시범운영 기간 동안의 개선 사항과 건의 내용 등 승객들의 수요 등을 적용해 오는 9월 1일 본격 운영할 계획이다. 제주도 관계자는 "관광행복택시 조기 정착을 위해 잠재적인 이용자가 쉽게 접근하고 인식할 수 있도록 다양한 홍보 방안을 발굴·홍보하고, 향후 매력적인 제주의 관광 상품이 되도록 최선을 다해나가겠다"고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 변사체 사건 후, 카라반 캠핑 관광 온 30대 여성 '또' 실종, 국민 청원 "난민 범죄" 등장 : 일반 : 종교신문 1위 크리스천투데이 일반 제주도 변사체 사건 후, 카라반 캠핑 관광 온 30대 여성 '또' 실종, 국민 청원 "난민 범죄" 등장 크리스천투데이 전체기사 교계교단 전체기사 일반기사 연합기구 교단 기관단체 이단·사이비 목회신학 전체기사 일반기사 교회/목회 치유상담 신학대 소식 신학/단체 은혜의 샘 설교 교회로 돌아온 신학 교회건축, 패러다임을 바꾸다 선교 전체기사 일반기사 국내선교 해외선교 특수선교 중보기도 해외 한인교회 특별기고 청년캠퍼스 청소년 국제 전체기사 일반기사 국제기구 미국·중남미 아시아·대앙주 유럽 중동·아프리카 일반기사 사회 전체기사 일반기사 정치·사회 인권 종교 봉사 NGO 복지 사람들 문화 전체기사 일반기사 대중문화 에세이 송영옥 칼럼 영화·공연 미술전시 문학 북스 뮤직/CCM 크리스천 연예/스포츠 교육 전체기사 일반기사 교회교육 홈스쿨링 기독교학교 라이프 전체기사 건축 일터 사역 여행 집회/세미나 생활경제 가정 건강 크리스천기업소식 오피니언/칼럼 기독컨텐츠 카드뉴스 오늘의 묵상 기독교 명언 북마크 쉽게 씌어진 시 Praise 배경화면 Pray with You 산마루서신 오늘의 기도문 포토투데이 CTTV 일반 제주도 변사체 사건 후, 카라반 캠핑 관광 온 30대 여성 '또' 실종, 국민 청원 "난민 범죄" 등장 김신의 기자 ewhashan@gmail.com | 입력 : 2018.07.30 17:24 Share Kakao More ▲ⓒ제주동부경찰서 제주도가 무사증 입국으로 난민 문제를 앓고 있는 가운데, 최근 제주도에서만 연이은 변사체가 발견, 실종 사건으로 제주도민의 불안이 가중되고 있다. 지난 6월 7일과 지난 6월 13일, 제주해양경찰서는 변사체를 발견해 수사에 나섰다. 6월 7일엔 대전시 서구에 사는 40대 여성 김 모 씨(41)의 시신을 발견, 6월 13일에는 다방에서 일하던 50대 여성 오 모 씨(59) 시신을 발견했다. 이에 이은 7월 25일 제주시 구좌읍 세화항 인근에서 30대 여성 최 모 씨가 실종됐다. 현재 해당 사건은 공개 수사로 전환됐다. 최 씨는 가족과 함께 제주도 구좌읍 세화항 인근 카라반에서 관광으로 캠핑 여행을 왔다가 실종된 것으로 전해졌다. CCTV에 따르면 최 씨는 제주시 구좌읍 세화항 부근 인근 편의점에서 마지막으로 확인됐다. ▲ⓒ청와대 국민청원 게시판 이 과정에 제주도 실종 사건으로 청와대 청원글까지 게재되는 등 여론 관심이 쏟아졌다. 일부 청원 글은 난민에 의한 범죄가 아니냐는 의혹을 제기했지만, 제주도 경찰 측은 "난민 범죄 가능성이 적다"고 밝히며 '실족'과 '범죄' 두 가능성을 두고 수사 중이다. 현재까지 경찰은 최 씨의 휴대전화 및 최씨의 것으로 추정되는 슬리퍼를 발견했다. 최 씨의 휴대전화와 신용카드는 캠핑카 인근 공중화장실에서, 슬리퍼 한 쪽은 지난 26일 오후 3시쯤 세화항 방파제 인근 해상에서 발견했고, 나머지 슬리퍼 한 쪽은 구좌읍 하도리 MJ리조트 인근 해상에서 발견했다. 한편 지난해 IOM이민정책연구원이 발표한 외국인과 내국인의 인구 대비 범죄율(2013년 기준)에 따르면 개별 범죄 유형으로 볼 때 외국인에 의한 살인 범죄율은 내국인보다 2.5배 높았고, 강도는 1.4배, 폭력 행위는 1.3배 높았다. 국적별 인구 대비 범죄율을 따져보면 강력 범죄율이 가장 높은 국적은 파키스탄(내국인 대비 5.97배)이었고, 몽골(3.86배), 러시아(2.92배), 우즈베키스탄(2.86배), 스리랑카(2.66배)가 뒤를 이었다. 강간(유사강간 포함) 범죄율은 파키스탄이 내국인 대비 5.85배 높았고 방글라데시(3.2배), 키르기스스탄(2.83배), 스리랑카(2.43배), 몽골(1.86배)이 뒤를 이었다. “가짜 난민에 이용당하는 난민법 독소조항 즉각 개정하라”‘제주 예멘 난민 사태’ 청와대 국민청원, 70만 돌파[사설] 난민들을 환대하기 전에예멘 난민 사태… ‘이슬람’과 ‘인도주의’ 사이에서 구독신청 &lt;저작권자 ⓒ '종교 신문 1위' 크리스천투데이, 무단전재 및 재배포 금지&gt; 마켓 플레이스 기독교 세미나/행사정보 원데이 성막영성집회 강사 조태규목… 어쨌든 신장병을 고쳤다는데... [10월16일 개강]집중력 영어속독 강사&amp;… &lt;눈으로 보듯 손으로 만지듯&gt; 꿈이있는교회 3GO사역 "나누고 섬기고 … 치유전문목회 필독서_GS약선카페 창업… 사역장로 '7년의중간보고서' [시무장… 이스라엘성서대학 장대수 목사의 추석특별 심령치유의 … 수맥과팔체질 [양평] 더큰나무 펜션_캠프_교육관_수… "위코세"특강 위드코로나시대의 말씀… 제37차 코칭 목회 세미나 파워관계전도세미나 목회자가 변해야, 교회가 산다 [목회… 한국목회임지연구소 교회 후임 요청 … 전세계 모든 열방을 살리는 나성기도… &gt;Please activate JavaScript for write a comment in LiveRe. 인사이드 시티 이 기사는 논쟁중 “태아 한 명 더 살릴 ‘태아생명 보호법’ 제정” 촉구 10월 국정감사 기간 국회 앞 집중 운행하기로 정부, 태아 생명권 임산부에게 떠넘기지 말고 후속 정책 마련해 태아 생명권 적극 보호해야 행동하는 프로라이프(상임대표 … 美 생명수호단체, 지지자 압수수색·체포한 법무장관 탄핵 촉구 美 유명 만화, ‘레즈비언 여주인공’ 등장 논란 인물 이 사람 “신앙이란 고난 안 만나는 것 아닌, 이길 힘 공급받는 것” “부활하신 예수님께 항상 기도하며 일하니, 범사에 감사뿐입니다” 세계는 지금 메신저 대화 때문에 체포·수감된 나이지리아 기독교인, 재판 회부돼 세계 청소년들, 대부분 예수에 대해 ‘긍정적’이지만… 크리스천 셀럽 가수 이수영 15년 만의 콘서트… “영육 간에 강건해요” 배다해, CCM채널 ‘갓쏭’ 출연해 러빔의 ‘하나님의 열심’ 커버 많이 본 기사 ‘웬만한 중형교회 숫자’ 700여 명 떠나가게 한 교회 분쟁 “부활하신 예수님께 항상 기도하며 일하니, 범사에 감사뿐입니다” “성경 연구 소프트웨어에 혁신을 더하다”… ‘Logos 10’ 출시! “신앙이란 고난 안 만나는 것 아닌, 이길 힘 공급받는 것” [최종천 칼럼] 간결하게 사는 삶 “태아 한 명 더 살릴 ‘태아생명 보호법’ 제정” 촉구 남원중앙교회, 창립 70주년 감사 및 비전선포 예배 [순교자의소리] 금주의 중보기도 (10/10~10/16) 신앙과 삶 [신앙 에세이: 삶과 사랑] 은혜 CT YouTube [영상] “아빠가 엄마로? 허락한 대법관들의 이름 역사는 기억” [영상] 남북관계, 정부가 나서지 말고 기독교계에 맡겨라[영상] 통계가 말하는 동성애와 에이즈[영상] 이영훈 목사 “조용기 목사님은 강단에 서시기만 하면…” 크리스천투데이 크리스천투데이 | 등록번호 : 서울, 아01897 | 등록일자 : 2011년 12월 2일 | 제호 : 크리스천투데이 | 발행인 : 유재광 | 편집인 : 이대웅 | 발행소 : 서울시 종로구 창경궁로 305, 시티빌딩 (혜화동) / 서울시 종로구 혜화동 31-1번지 시티빌딩 | 발행일자 : | 청소년보호책임자 : 송경호 | Tel : 02) 598-4564 | Fax : 02) 6008-4204 Copyright © All rights reserved. 크리스천투데이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재, 복사, 배포 등은 법적제재를 받을 수 있습니다. 회사소개 | 구독신청 | 개인정보취급방침 | 편집자에게 | 광고안내 02)598-4597 | 대표전화 : 02)598-4564 | Fax : 02)6008-4204 저작권 | 회원약관 | 게시판/댓글 운영원칙 | 이메일주소 무단수집거부</t>
+  </si>
+  <si>
+    <t>제주도 작년 관광산업 2010년 이후 첫 마이너스 성장 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 작년 관광산업 2010년 이후 첫 마이너스 성장 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 작년 관광산업 2010년 이후 첫 마이너스 성장 송고시간2018-07-12 16:51 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 박지호 기자 기자 페이지 한은 "-6.1% 기록…중국인 관광객 감소·업체 간 과당경쟁 원인" '사드 보복'에 한산한 성산 일출봉 주차장[연합뉴스 자료사진] (서귀포=연합뉴스) 박지호 기자 = 중국의 '사드 보복'이 본격화된 15일 오후 제주 서귀포시 성산읍 성산 일출봉의 버스 주차장이 한산한 모습이다. 2017.3.15 jihopark@yna.co.kr (제주=연합뉴스) 박지호 기자 = 2010년 이후 관광객이 급증하면서 관광수입이 크게 증가하는 등 외형상 높은 성장세를 보인 제주 관광산업의 부가가치가 지난해 들어 감소세로 돌아섰다는 조사 결과가 나왔다. 한국은행 제주본부(이하 한은)가 12일 발표한 '제주지역 관광객의 지역경제 파급효과 분석' 보고서에 따르면 제주 관광산업의 실질 성장률은 2013년 10.8%, 2014년 15.7%, 2015년 7.9%, 2016년 7.1%를 기록하다 지난해 -6.1%를 기록해 2010년 이후 최초로 마이너스 성장한 것으로 나타났다. 한은은 지난해 사드배치 이후 한중관계가 급랭하면서 중국 관광객이 크게 감소한 데다 업체 간 과당경쟁이 이어지면서 경영여건이 악화한 데 기인한 것으로 풀이했다. 광고 총 부가가치 기준 관광산업 비중 역시 2017년 10%로 떨어져 2015년 이후 계속해서 건설업 비중보다 위상이 내려간 것으로 나타났다. 2017년 중 제주를 찾은 관광객에 의해 유발된 관광산업 신규 고용 역시 2015년 3천637명의 4분의1 수준인 908명으로 크게 감소했다. 제주 관광산업의 1인당 임금은 2017년 중 1천680만원으로 건설업의 3천940만원의 절반에도 미치지 못하는 데다 제조업 2천420만원에 비해서도 크게 낮은 수준으로 조사됐다. 지난해 제주의 관광수입은 5조6천억원으로 2016년 5조5천억원에 비해 1천억원이 증가했지만, 관광 부가가치(관광수입)는 1조6천억원으로 2016년 1조7천억원보다 하락했다. 한은은 "제주의 관광수입 증가에도 최근 3년간 관광 부가가치율이 줄어들고, 그 결과 성장률도 하락세로 전환하는 등 질적 성장이 약화하는 모습"이라며 "업체 간 가격 경쟁 심화로 경영여건이 악화하고, 사드배치에 따른 외국인 관광객 감소가 그 원인"이라고 분석했다. 한은은 "경영여건이 열악한 업종에 대해 구조조정을 하고, 과당경쟁이 심한 업종은 진입장벽을 높이는 방향을 검토해야 한다"며 "숙박 등 1차 소비산업 중심의 산업구조를 의료, 체험 등 고부가가치 산업과 연계해 영업이익을 개선하고 임금 수준을 높일 필요가 있다"고 제언했다. 아울러 "송객 수수료 등 인센티브 중심의 마케팅 전략을 상품 중심으로 전환하고, 지자체의 관광산업 콘트롤 타워 역할을 강화할 필요도 있다"고 덧붙였다. jihopark@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2018/07/12 16:51 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 22 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>여름철 관광지 검색 1위 '해수욕장'…강원도·제주도 인기 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 여름철 관광지 검색 1위 '해수욕장'…강원도·제주도 인기 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 여름철 관광지 검색 1위 '해수욕장'…강원도·제주도 인기 송고시간2018-07-11 10:02 中文 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김은경 기자 기자 페이지 관광공사, 'T맵' 최근 3년 검색기준 지자체별 여름 관광지·맛집 10선 강원 고성군 송지호해변[한국관광공사 제공] (서울=연합뉴스) 김은경 기자 = 우리 국민이 여름철 가장 즐겨찾는 관광지가 '해수욕장'이고, 특히 강원도·제주도 해수욕장이 인기인 것으로 나타났다. 한국관광공사는 SK텔레콤과 공동으로 스마트폰 기반 내비게이션 'T맵'(티맵)의 최근 3년간 검색량을 기준으로 한 광역지방자치단체별 여름철(7∼8월) '인기 관광지와 맛집 10선'을 11일 발표했다. 이는 T맵 사용자들의 최종목적지 검색량 및 증가율 기준으로 집계한 것으로 해당 지점의 실제 방문자 수와는 차이가 있을 수 있다. 광고 여름철 야외(자연) 관광지를 분석한 결과 가장 많이 찾은 곳은 '해수욕장'이었다. 많이 찾은 전국 해수욕장 50곳 중 낙산해변, 협재해변 등 강원도 및 제주도 내 해수욕장이 상위권을 기록했다. 또 광명동굴, 재인폭포 등 '폭포·계곡·동굴' 및 동막해수욕장캠핑장, 석모도자연휴양림 등 '캠프장·자연휴양림'의 방문 건수도 2015년 대비 2017년에는 각각 58.6%, 48.1% 늘었다. 캐리비안베이, 김해롯데워터파크와 같은 실내 '수영장·놀이시설'도 10.7% 증가했다. 과천과학관, 경기도어린이박물관 등 가까운 '박물관·기념관·미술관·과학관' 및 국립아시아문화전당, 신한카드 판스퀘어 등 '전시장·공연장'과 같은 실내문화시설 방문 건수도 2015년 대비 각각 169.3%, 186.3%로 많이 증가해 근거리, 당일치기 등의 '여행의 일상화' 경향을 읽을 수 있었다. 여행 예능프로그램 및 사회관계망서비스(SNS) 단골 콘텐츠인 '맛집' 도 이번 T맵 데이터에서 상위를 차지했다. 특히 삼계탕 및 냉면, 밀면, 막국수와 같은 면류 등 여름철 특화 음식점들이 지역별로 인기 목적지로 나타났다. 한국관광공사 관계자는 "최근 3년간의 방문 추이를 살펴본 결과 지자체별 인기 관광지들이 올여름에도 지속해서 인기를 끌 것"이라며 "올여름 휴가는 국내 지방 명소를 찾아 그 지역 대표 음식을 맛보며 더위를 나는 것이 지방관광 활성화에도 기여하고 소소하지만 확실한 행복을 찾는 방법이 될 수 있을 것"이라고 조언했다. kamja@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2018/07/11 10:02 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 22 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 실종에 사망 사고까지? 관광객들 ‘불안’ - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 아임반 x 네이버 쇼핑 페스타 행사 진행 메이튼, 쌍용 토레스 실내 편의 용품 콘솔 트레이 990원 이벤트 진행 (사)동물보호단체 헬프애니멀, 제3회 길고양이 중성화사업 TNR시 치료지원 사업 진행 PGA TOUR &amp; LPGA 골프웨어, 2022 F/W 런칭 행사 ‘PRIVATE SOCIAL PARTY’ 마무리 이포넷, 번역 서비스 분야 국제 표준 ISO 재인증 심사 통과 코바(KOVA), 범죄 없는 따뜻한 세상 위한 ‘2022 KOVA 범국민 캠페인’ 개최 [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 2022년 10월 둘째 주 육아 관련 정책 [육아 정책브리핑] 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 비타공방, 아토 비타민D 드롭 4,000IU 국내출시 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 킥고잉, 자전거 출시 효과 톡톡... 신규 가입자 30% 증가 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] 구전녹용, 녹용과 석류가 달여진 ‘구전녹용 정경부인’ 11일 재출시 쌍용C&amp;B, ‘코디 아트앤 포켓몬’ 휴대용 물티슈 출시 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 제주도 실종에 사망 사고까지? 관광객들 ‘불안’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 대중문화 제주도 실종에 사망 사고까지? 관광객들 ‘불안’ 보도본부 | 류지연 기자 승인 2018.07.30 13:21 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [시선뉴스] 제주도에서 실종사고와 사망사고가 발생한 것으로 알려졌다.지난 27일 제주도 제주시 구좌읍 세화항 인근에서 30대 여성 A씨가 실종되는 사고가 발생했다. 현재까지도 A씨의 행방을 찾을 수 없어 결국 공개수사로 전환됐다.제주도에서 실종된 A씨는 가족과 함께 캠핑을 하다 갑자기 종적을 감췄다. 마지막 모습이 발견된 것은 편의점 CCTV에서였다. 사진=제주해양경찰서 제공 현재 제주도 실종 사건을 두고 경찰은 바다에서 신용카드와 슬리퍼가 발견된 것으로 미루어봤을 때 실족으로 내다봤다. 범죄 가능성도 배제하지 않고 있다.제주도 실종 사건을 공개수사로 전환한 30일, 또 다른 사고 소식이 전해졌다. 지난 29일 함덕해수욕장에서 스노클링을 하던 20대 군인 이씨가 사망한 것이다.이씨는 스노클링 장비를 착용한 채 구조됐지만 입 주변에 포말이 형성돼 있던 상태였던 것으로 전해졌다.육상 인양 후 119 구조대에 의해 AED(자동제세동기)와 심폐소생술 처치가 실시됐지만 이씨는 결국 숨을 거둔 것으로 알려졌다. 자세한 사고 경위는 알려지지 않았다.제주도 실종 사고에 사망사고까지 발생하면서 관광객들의 물놀이에 대한 주의가 당부됐다. 또 실종 사고에 범죄 가능성도 배제하지 않은 만큼 관광객들의 불안감도 높아지고 있다. 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] [카드뉴스] 10월부터 전기요금 인상, 물가 비상에도 요금을 왜 인상해야 할까? 시사상식 노트7 [2022년 10월 둘째 주_시선뉴스] 오늘의 주요뉴스 기사더보기 &gt; 류지연 기자 sisunnnews@sisunnews.co.kr 한지민의 시간은 '13년' 거꾸로 간다…"38살 여배우의 스물다섯 되... "정겨운의 걱정, 유상무의 도움"…아내 '가사노동' 대하는 男 스타 ... "나보다 먼저 죽지는 마"…나이 68세 이덕화의 아릿한 '끝사랑' 고... 오늘 이 영화 어때요? 1 [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 2 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 1 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 2 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 많이 본 뉴스 종합 뉴스 1[정책브리핑] 2022년 10월 10일 월요일 주요 정책 2[오늘의 사자성어] 피갈회옥[被褐懷玉] 3[10년 전 오늘] 검찰, 프로포폴 판매-투약자 무더기 체포...전면 수사에 나서 4車 주요뉴스, 휘발유 30.7원·경유 18.6원↓ - 무면허 렌터카 사고 - '타다' 대법서 최종 판단 [모터그램] 5이번 주 별자리운세 '10월 10일~10월 16일' [인포그래픽] 6[뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 7앱 개발자들의 수익과 직결되는 ‘인앱 결제’, 애플 가격 인상 내걸어 [지식용어] 82022년 10월 10일, 오늘의 띠별 운세 [인포그래픽] 910월 10일 월요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] 10[시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 1음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 2혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 3싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 4비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 5졸리 측, “피트가 아이들에게도 폭력 행사했다”... 기내 난투극 상황 상세히 공개 6MBN '우리들의 쇼10', 뉴트리 화장품 천수윤진 크림밤 소개 7박서준, 캘빈클라인 FW 캠페인 추가 공개 되며 다시 한번 ‘여심 저격’ 8‘비밀남녀’ 조이 무속인 정체 이후 실망스러운 전개 평가 나와 9가수 강태관이 신곡 ‘별’ 미디어파사드 뮤직비디오 선보여 10마약 투약 혐의 돈스파이크 구속 상태로 검찰에 넘겨져 스타 인터뷰 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+  </si>
+  <si>
+    <t>[전국]제주도, 관광객에 '환경보전기여금' 부과 추진 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 서울 잠원동 공원에서 50대 권총에 맞아...극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... [뉴스라이브] 이재명 "욱일기 다시 걸릴 수도"...국민의힘 "소... 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 제주도, 관광객에 '환경보전기여금' 부과 추진 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 정당화될 수 있나"...野 '친일... 이재명 "與, 해방 후 친일파 행태...尹, 국민께 ... 서울청장 "이준석, 지난 주말 소환 조사...무고 ... 코스피, 2,200선 붕괴...환율, 장중 1,430원 돌파 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일국방' 공세 일축 대화 필요 없다는 김정은에 美 "여전히 외교적 해법 전념" 김기현, 安 견제…"대선 불출마 선언 기대하겠다" 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 서울 잠원동 공원에서 50대 권총에 맞아…극단적 선택 추정 국내 외국인 교육시설 30%, '일본해' 표기 교과서 사용 코스피, 2,200선 붕괴…환율, 장중 1,430원 돌파 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 [단독] SLBM 개발 성과보상금 '0원'…국방과학연구소 떠나는 연구원들 오늘부터 개량백신 접종…신규 확진 1만 5,476명 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 국민연금 자발적 가입자 5년만에 첫 감소세…건보개편 영향 우려 고물가에 '구제 시장'도 타격…"손님은 늘었는데 안 사요" '반값' 배추 예약 문전성시…김장철 가격 내릴까 농약 인터넷 판매 막았다더니…"점 하나 찍으면 바로 검색" 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 엔·달러 환율 다시 145엔대…日 정부 시장 개입 효과 제한적 다음 전국 제주도, 관광객에 '환경보전기여금' 부과 추진 2018년 07월 04일 13시 03분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 [앵커] 제주도가 자연환경 보전 등을 위해 이르면 2020년부터 관광객에게 '환경보전기여금'을 부과한다고 합니다. 매년 증가하는 관광객 때문에 늘어나는 생활폐기물 처리비용 마련을 위해서라고 하는데요, 취재기자를 연결해 자세하게 알아보겠습니다. 유종민 기자! 먼저 환경보전기여금 제도를 도입하려는 이유부터 알아볼까요? [기자] 제주도를 찾는 관광객이 늘면서 생활폐기물 처리비용이 급증하고 있기 때문인데요, 자연환경 보전을 위한 재원을 마련하기 위해섭니다. 제주를 찾는 관광객은 지난 2013년 천만 명을 처음 넘어선 이후 계속 늘어 지난해에는 천470만 명이 찾았습니다. 이렇게 관광객이 급증하면서 생활폐기물과 하수 발생량이 증가하고, 대기오염과 교통혼잡 등 환경처리비용은 계속해서 늘고 있습니다. 용역 결과 매년 2천790억 원의 처리비용이 발생하고 있다고 나왔습니다. 이 때문에 수용 용량이 한계에 도달했다는 우려 속에 환경보전기여금 제도 도입 필요성이 제기돼 왔습니다. 용역에서 제시된 부과금은 숙박 시 1인당 천500원, 렌터카의 경우 승용차는 하루 5천 원, 승합차는 만 원입니다. 전세버스는 이용요금에 5% 부과됩니다. 경차와 전기자동차는 50% 감면됩니다. 이렇게 될 경우 관광객 1인당 평균 8,170원을 더 부담하게 됩니다. [앵커] 환경보전기여금은 어디에 쓰여 지고 제도는 언제부터 시행되는 겁니까? [기자] 환경보전기여금이 부과되면 시행 3년 차에는 약 천500억 원이 징수될 전망입니다. 이렇게 징수된 부과금은 제주환경기금으로 조성하여 환경 개선사업과 생태계 보전·복원 사업 등에 사용됩니다. 환경보전 기여를 위한 지원사업과 환경부문 일자리 창출 사업 등에도 활용됩니다. 제도는 이르면 2020년부터 도입할 예정입니다. 올해 말까지 모든 절차를 완료하고 내년 상반기에는 징수 시스템을 마련한다는 계획입니다. 전문가 토론회와 공청회, 설명회 등을 열어 범국민 공감대를 형성해 나가기로 했습니다. 하지만 추진 과정에는 적잖은 논란이 예상되고 있습니다. 제도 도입을 위해서는 제주특별법 개정을 통해 법적 근거를 마련해야 하고, 중앙부처 등을 대상으로 설득하는 과정에서 다른 지역과의 형평성 문제 등으로 인해 어려움을 겪을 것으로 보입니다. 지금까지 YTN 유종민[yoojm@ytn.co.kr]입니다. [저작권자(c) YTN 무단전재 및 재배포 금지] 전국 기사목록 전체보기 혼자 사는 70대 여성 둔기 살해한 50대 검거 외국인 노동자 상대로 신종 마약 '야바' 유통한 일당 검거 외국인 노동자 상대로 신종 마약 '야바' 유통한 일당 검거 [서울] 올림픽대로·강변북로 등 전광판 세척...31일까지 부분 통제 YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>제주도관광협회-카자흐스탄관광협회, 우호교류협약 체결 확대 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회-카자흐스탄관광협회, 우호교류협약 체결 확대 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회-카자흐스탄관광협회, 우호교류협약 체결 확대 기자명 고병수 기자 입력 2018.07.20 16:43 수정 2018.07.20 16:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주도와 도관광협회(회장 김영진)는 18일 카자흐스탄 알마티에서 카자흐스탄관광협회(회장 샤이케노바 라쉬다)와 신규 우호교류협약을 체결했다고 밝혔다. 이에 중앙아시아로의 시장 확대를 위한 교두보를 구축했다는 것. 이번 교류협약에는 17일부터 21일까지 중앙아시아 핵심 잠재시장인 카자흐스탄 지역과 관광·문화·스포츠와 연계한 비즈니스 네트워크 마케팅 협력 체계 확대 및 도내 관광사업체 중앙아시아 관광시장 교두보 구축을 위해 추진됐다.道관광협회에 따르면 18일 체결식에는 샤이케노바 라쉬다(Shaikenova Rashida) 카자흐스탄관광협회장 및 알마티시 관광부 키키몸 막사트 샤케노비치(Kikimow Makat Cakenovich) 부장, 성필상 KTO 카자흐스탄 사무소장을 비롯해 방한 상품을 취급하는 현지 주요여행업계 대표 및 주요 언론매체 등이 참가했다.    체결식과 함께 현지 여행업계 및 언론사를 대상으로 제주의 해양관광 콘텐츠와 함께 제주시티투어버스, 도내 주요 관광사업체 소개와 함께 의료관광과 접목한 제주의 휴양 관광상품을 소개하는 설명회를 개최했다.   관계자는 "앞으로 이번 중앙아시아 핵심시장인 카자흐스탄과의 교두보 구축이 이뤄진 만큼 도내 관광사업체가 실질적인 네트워크 구축 체계가 이뤄지도록 적극 노력할 것"이라고 했다.한편 카자흐스탄은 중앙아시아 타 국가대비 개방성이 높고 소비자 구매력 및 해외여행 잠재력이 높은 국가로 2017년 10월기준 방한 관광객이 3만6967명으로 전년 3만4068명에 비해   전년 8% 증가하고 있는 등 최근 3년간 27.1% 방한 관광객이 증가하고 있다. 또한 중국, 미국, 일본, 러시아와 함께 고부가가치 의료관광 5대 핵심시장으로 급성장 하고 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 중국개별관광객 유치위해 전방위 마케팅 나선다 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 중국개별관광객 유치위해 전방위 마케팅 나선다 등록 2018.07.09 10:05:49 작게 크게 올해들어 중국 개별관광객 증가추세 【제주=뉴시스】 제주시 연동의 한 면세점 앞에 중국인 개별 관광객(싼커)이 줄을 서 개장시간을 기다리고 있다. (뉴시스 DB) 【제주=뉴시스】강정만 기자 = 제주특별자치도는 중국 개별관광객(FIT) 유치 활성화를 위해 전방위 마케팅을 추진한다고 9일 밝혔다. 도는 이를 위해 중국 현지 유명 온라인 방송프로그램인 뷰티풀로드(Beautiful Road)의 제주 촬영을 지원해 총 8회분의 영상을 제작했다. 이 프로는 지난달 25일부터 방송을 시작해 9월25일까지 아이치이(愛奇藝), 소후(搜狐), 웨이보(微博) 등을 통해 방송된다. 이 홍보 영상은 제주에서 2박 3일간 현지인과 어울려 여러 가지 체험을 하면서 새로운 친구, 사람들과 어울리는 뉴 라이프 체험을 컨셉으로 제주도의 미식, 쇼핑, 레저, 이색 카페 등이 소개되고 있다. 이에 앞서 지난 6월말에는 상하이에서 ‘Talk Talk JEJU, 제주 백문백답’을 주제로  일반 소비자 130여명을 대상으로  제주의 관광 매력을 소개했다. 또 중국 여행정보검색 1위 사이트인 ‘마펑워’ 와 협의를 통해 제주방문 중국인 개별관광객들의 선호도, 관광패턴 분석을 위한 빅 데이터를 공유하고 이를 바탕으로 제주관광의 질적성장 실현을 위해 서로 협력하기로 했다. 제주를 방문하는 중국 단체 관광객은 지난해 사드(THAAD:고고도방어미사일체계) 사태 이후 급감한 상태지만  개별관광객(FIT)은 올해들어 증가추세를 보이고 있다. 지난 1월 3만131명, 2월 3만2782명에서 3월에는 거의 1만명이 늘어난 4만2243명, 4월 4만4257명, 5월 4만9597명으로 집계됐다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>유명 관광지에서 만나는 갈치조림. 제주도 에코랜드 맛집 옛집2 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.07.23 (토) 흐림동두천 22.7℃ 흐림강릉 25.2℃ 비서울 25.2℃ 비대전 26.3℃ 비대구 25.9℃ 비울산 23.6℃ 비광주 23.2℃ 흐림부산 23.9℃ 흐림고창 23.7℃ 구름많음제주 29.7℃ 흐림강화 21.3℃ 흐림보은 24.8℃ 흐림금산 25.1℃ 흐림강진군 25.7℃ 흐림경주시 24.5℃ 흐림거제 24.1℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 18차 금융포럼 창간 21주년 17차 경제산업포럼 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 유명 관광지에서 만나는 갈치조림. 제주도 에코랜드 맛집 옛집2 강유라 기자 news@pcss.co.kr 등록 2018.07.20 10:07:49 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 제주 성산일출봉 등 세계적인 자연관광지를 가진 제주도는 사계절 기온이 온화하고 많은 여행객이 찾는 우리나라의 대표적인 자연휴양지로 인기가 많다. 같은 제주도 내에서도 자연이 특히 아름답고 볼거리가 많은 곳으로 제주도 동부지역을 꼽는 사람이 있다. 제주도 동부에는 세계자연유산으로 지정된 성산일출봉, 제주당처물동굴을 비롯하여 만장굴, 비자림, 제주 특유의 자연지형인 오름과 분화구를 쉽게 찾아볼 수 있다. 특히 제주 에코랜드 주변으로 자연휴양림과 골프장, 승마장 등이 집중되어 있어 많은 관광객이 이곳을 찾는다. 제주도 여행을 다녀온 사람이라면 유명 관광지에서 경험하는 토속음식에 대해서 이야기를 한다. 제주도는 한반도와 떨어져 있는 섬 지역으로 비슷하지만 특색있는 다양한 요리가 발달해있다. 현지 특산물로 꼽히는 흑돼지, 전복, 갈치, 옥돔 등을 식재료로 활용한 요리는 고급 식재료로 여름철 보양식 메뉴로도 사랑받는다. 제주도 에코랜드 맛집으로 토속음식점인 옛집2가 있다. 정원과 인공 연못이 있는 제주고택을 개조한 이곳은 편안한 실내에서 다양한 제주도 별미음식을 경험할 수 있다. 전복갈치조림, 제주도 물회나 옥돔구이는 이곳을 방문한 많은 여행객이 찾는 인기 메뉴 중 하나다. 이 밖에도 독특한 양념이 추가된 고등어조림, 갈치조림이나 전복구이, 흑돼지제육볶음 등을 주문하여 맛볼 수 있다. 그 중 제주 인근해역에서 잡아올린 빛깔이 곱고 아름답고 크기가 큰 제주은갈치로 만든 갈치조림은 갈치를 통으로 잘라 손질한 뒤 칼칼하고 매콤한 양념에 오랜 시간 졸여 갈치살에 양념이 잘 배여 있어 맛이 좋다. 여름을 이겨내는 건강보양식으로도 인기가 많아 제주맛집을 찾는 여행객들이 먼저 찾는 별미음식이다. 옛집2 관계자는 “제주도 에코랜드 맛집 주변거리에는 다양한 음식점이 많은데, 옛집2는 다양한 해산물을 요리에 사용하여 다양한 현지음식을 방문객에게 대접한다. 제주도 주변에서 잡아올린 식재료를 그대로 손질하고 전통방식 그대로 조리하기 때문에 독특한 제주도의 맛을 경험할 수 있다”고 말한다. 토속음식점은 제주 주변지역에서 제주흑돼지나 다양한 해산물을 잡고 요리로 만들어 손님에게 대접한다. 특히 성게비빔밥은 신선도에 따라서 맛이 달라질 수 있어 같은 음식을 먹더라도 제주도에서 경험하는 음식의 맛이 더욱 특별하다고 느끼는 이유가 된다. 제주도 에코랜드 맛집 옛집2는 에코랜드 테마파크와 산굼부리 분화구에 가까이 있다. 자가용을 타고 방문한다면 네비게이션을 통해 쉽게 방문이 가능하다. 영업시간은 오전 10시에 시작하여 오후 3시30분까지이며 방문 전 전화예약을 통해 주문을 할 수 있다. 강유라 기자 의 전체기사 보기 관련태그 #갈치조림 #제주도 에코랜드 맛집 강유라 기자 기업현장을 찾고 있습니다. 알아두면 쓸모있는 우리 주변의 정보를 모으겠습니다. 이메일news@pcss.co.kr 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 정당 [김능구의 정국진단] 정우택 국민의힘 의원① “尹대통령 지지율 하락, 정권교체 기대에 못 미쳐 실망감” 파업 51일째, 대우조선 하청노·사 협상 극적 타결 산은 "대우조선 하청노조파업 장기화로 자금난땐 추가지원 불가"…채권단 지원거부시 회생절차 신청 불가피 [현장 24시] 아모레 성수, 고객의 상상이 일상으로 4대 금융지주 상반기 순익 9조 ‘사상최대’… 주주환원 나선다 [종합] 尹대통령 MB사면 반대여론 질문에 “미래지향적으로 가면서 국민정서도 감안” 많이 본 기사 1[김능구의 정국진단] 정우택 국민의힘 의원① “尹대통령 지지율 하락, 정권교체 기대에 못 미쳐 실망감” 2진보당 신임대표 윤희숙 선출, 진보진영 정권교체…3당 도약이뤄 낼까? 3청송군새마을회, 피서지 이동문고 개소 4청송군, 선진 교통문화 확립에 앞장! 5청송군, 2022년 전국 지방자치단체 일자리대상 6예천군, 제19회 경상북도지사기 전국 남‧여 초중학교 양궁대회 개최 이슈 더보기 [폴리TV][7월 좌담회 ②] “가시화되는 전방위 사정 칼날, 검찰공화국의 진면목인가?” [폴리뉴스 강경우 PD]&lt;폴리뉴스&gt;와 월간 &lt;폴리피플&gt;은 7월 19일 “윤석열 정부 첫 해, 경제 위기 속에 총체적 난국이 우려된다”는 주제로 정국좌담회를 가졌다. 이날 좌담회에는 홍형식 한길리서치 소장, 차재원 부산 가톨릭대학교 특임교수, 황장수 미래경영연구소장, 그리고 본지 김능구 폴리뉴스 대표가 참석했다. [폴리 7월 좌담회 전문②] “가시화되는 전방위 사정 칼날, 검찰공화국의 진면목인가?” [폴리 7월 좌담회 전문①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리TV][7월 좌담회①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” 인터뷰 더보기 [김능구의 정국진단] 정우택 국민의힘 의원① “尹대통령 지지율 하락, 정권교체 기대에 못 미쳐 실망감” [폴리뉴스 김유경 기자] 제20대 대통령선거와 함께 치러진 국회의원 보궐선거에서 당선된 정우택 국민의힘 의원(5선·충북 청주시상당구)은 최근 윤석열 대통령의 지지율이 하락세를 보이는 것에 대해 “5년만에 정권교체가 이뤄졌는데, 지금 윤석열 정부의 여러 모습이 우리 국민들의 정권교체를 통한 기대나 염원에 못 미친 것이 아닌가 생각한다”고 밝혔다. 정우택 국민의힘 의원은 21일 오후 줌 화상 연결을 통해 진행된 &lt;폴리뉴스&gt; ‘김능구의 정국진단’ 인터뷰에서 “문재인 정부 때 답답한 정치나 행정‧사회 전반에 걸친 모순적 행동, 사과할 줄 모르는 오만 등에서 벗어나 윤 정부는 시원한 모습을 보여줄 줄 알았는데 아직 보여주지 못하고 있지 않나”라며 이렇게 말했다. 또한 “두 번째로는 경제적 요인으로 지금 경제적 상황이 급격히 악화되고 있는데, 복합 위기에 대처하는 데 있어 정부가 역동성 있게 가동되지 않고 있다는 심리가 국민들 사이에서 작용한 것으로 보인다”고 풀이했다. 정 의원은 “세 번째로 정권이 바뀌면 당하고 정부가 서로 역동적으로 유기적으로 움직여서 새로운 강력한 드라이브를 걸어야 한다”며 “저희 당의 모습도 당대표 징계 파동 문제를 비롯해 윤석열 정 [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [스페셜인터뷰 전문 ②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [스페셜인터뷰 전문①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [폴리TV][스페셜인터뷰①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” 카드뉴스 더보기 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [폴리뉴스 김상준 기자] "여름철이면 생각나는 바다. 우리 모두가 환경 오염의 심각성을 환기하고 생태계 보호의 중요성을 공감해 환경보호를 실천하도록 KT&amp;G도 함께 노력하겠습니다" 지구 표면 2/3 이상을 차지하며 30만여 종의 생물이 살고 있다는 생명의 보고, 바다! 특히 여름철, 휴가를 갈곳으로 가장 먼저 떠올리곤 합니다. 2015년 세계자연기금(WWF)에서 발표한 자료에 따르면 바다의 자산 가치는 24조달러(2경9000조) 이상입니다. 휴가철에 보는 아름다운 경관뿐만 아니라 경제적 자산으로서도 바다는 매우 소중하고 가치있다고 할 수 있습니다. 하지만 이렇게 소중한 바다가 환경오염으로 인해 심각한 위험에 처해 있습니다. 일회용품 소비가 급증하면서 해양 쓰레기로 인한 생태계 피해가 심각한 수준입니다. 여러 단체가 바다를 위한 노력을 기울이는 가운데, KT&amp;G 역시 '바다환경 지키기'에 적극 동참하고 있습니다. KT&amp;는 2022년해양환경공단, 사단법인, 동아시아바다공동체 오션과 함께 바다를 지키기 위한 업무협약을 체결했습니다. 이 협약은 올해 다양한 해양 환경 활동을 추진하는 내용을 담고 있습니다. 특히 해양 오염 심각지역 실태조사 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. 트렌드&amp;토픽 더보기 스마트 심리상담 전문가 양성을 위한 '스마트심리상담사 3급 자격과정' 개설 4세대 스마트치료의 새로운 지평을 열어가는 ㈜한국스마트치료협회(Korean Association of Smart Therapy)는 디지털 매체를 활용하여, 보다 더 스마트한 심리상담을 진행하는 전문가 양성을 위한 ‘스마트심리상담사 3급 자격과정’을 개설하고 교육생을 모집한다고 밝혔다. 스마트심리상담사는 온라인사이트, 온라인심리검사, 영상매체를 적극적으로 활용하며, 스마트폰 앱, VR기기, 메타버스 등을 통해 상담, 치료, 교육을 할 수 있는 심리상담사이다. 본 자격증은 민간자격증으로 한국직업능력연구원에 정식 등록되어있는 자격증이며 바쁜 현대인들을 위해 온라인으로 진행된다는 점이 특징이다. 교육과정은 ‘스마트치료이론, 다양한 접근법, 교육, 건강, 진단, 심리치료, 스마트치료의 효과, 스마트심리상담사, 스마트치료 상담과정, 스마트치료와 다른 심리치료와의 비교’ 총 10개 분야에 대한 온라인 강의로 구성되어 있다. ‘스마트심리상담사 3급 자격과정’ 완료 후 자격증을 발급받게 되면 학교, 일반인 대상 스마트 힐링교육을 시행할 수 있는 권한이 부여되며 KAST 강사진에 등록되어 협업과 새로운 기회 창출에 도움을 준다. 코로나19로 다양한 스마트기기를 활용한 비대면 18년째 '독도 영유권' 억지 주장한 日, "한일안보협력 중요" 강조 검찰, 은수미 전 성남시장 징역 5년 구형…은 "부정청탁·뇌물 받지 않아" 국민연금 53만원 받을 때 공무원연금 248만원…공적연금 간 격차 줄이려면 바이든, 코로나19 양성…"가벼운 증상으로 외부 일정 취소, 격리 상태서 업무 계속" 폴리TV 더보기 [폴리TV][7월 좌담회 ②] “가시화되는 전방위 사정 칼날, 검찰공화국의 진면목인가?” [폴리TV][7월 좌담회①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [폴리TV][스페셜인터뷰①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 07월 23일 18시 59분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 숙원 ‘제주종합비지니스센터‘ 개관 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회 숙원 ‘제주종합비지니스센터‘ 개관 파이낸셜뉴스입력 2018.07.10 19:17수정 2018.07.10 19:17 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 첨단과기단지 내 조성…지하 1층·지상 4층관광기념품 전시관, 융·복합 체험관도 운영 [제주=좌승훈기자] 제주도관광협회(회장 김영진)가 운영하는 제주종합비즈니스센터가 제주시 영평동 제주첨단과학단지 내 3185㎡ 부지에 지하 1층, 지상 4층 규모로 조성됐다. 총 113억원이 투입된 이곳에는 관광기념품 전시관과 융·복합 체험관도 운영된다. 김영진 제주도관광협회 회장은 10일 오후 3시 열린 개관식에서 "제주종합비즈니스센터는 지역 내 관광산업과 타 산업간 정보·기술 교류의 거점이 되고, 1·2·3차 산업의 창의적 융·복합을 통한 제주지역의 새로운 비즈니스 모델을 구축하는 데 도움이 될 것"이라고 밝혔다. 이날 개관식에는 원희룡 제주도지사와 김태석 제주도의회 의장, 김희현 제주도의회 부의장, 이광희 JDC 이사장, 김대형 제주상공회의소 회장, 홍명표 전 제주도관광협회 회장, 기타 리츠오(喜多 律夫) 일본 총영사, 장바오치(張寶齊) 중국 부총영사, 김성규 제주관광대 총장 등 200여명이 참석했다. 한편 제주종합비즈니스센터 건립에 기여한 공로로 ▷㈜상익건설 고석호 이사 ▷㈜국보전력 조민수 상무이사 ▷㈜남광 장형진 대표이사 ▷㈜오라 양인종 대표이사 ▷건축사무소 이담 박용오 대표이사 ▷㈜아성기술단 현봉식 대표이사 ▷제주도관광협회 최전일 팀장 ▷제주도관광협회 권기운 대리가 제주도지사 표창을 받았다. 제주도 장문봉 사무관에게는 제주도관광협회장 감사패가 전달됐다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사, 청춘감독 콘테스트 시상 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도·제주관광공사, 청춘감독 콘테스트 시상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도·제주관광공사, 청춘감독 콘테스트 시상 기자명 고영진 기자 입력 2018.07.15 14:15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주관광공사(JTO)는 13일 제주웰컴센터 대회의실에서 '제주축제영상공모전-청춘감독콘테스트' 시상식을 개최했다. 이번 공모전은 지난 4~6월 봄 축제를 담은 1~3분짜리 영상을 만드는 방식으로 진행됐으며, 모두 51편이 접수됐다.이달 초 심사를 거쳐 총 8개 팀을 선정했으며, 대상은 '제주축제 같이 갈래요'가 받았다.이 작품은 젊은 여성 3명이 가파도 청보리 축제와 삼다공원 야간콘서트를 여행하는 모습에 내레이션과 자막을 입혀 보는 사람을 즐겁게 만든다는 평을 받았다.최우수상은 '해녀의 첫 축제'가 수상했다. 이 작품은 해녀의 시선에서 보는 제주의 축제라는 신선한 아이디어와 영상미가 돋보인 작품이라는 평가다.이외에도 '제주 별을 보다' '제주 콜라보레이션' '꽃길만 가시리' '꽃보러 제주' '지금, 제주', '제주에서의 하루' 등 트렌드를 반영한 감각적인 영상 6편이 수상의 영광을 안았다.대상팀의 박초혜씨(27·경기)는 "저희들만의 버킷리스트로 제주여행을 하면서 영상공모전에도 참여해보자 한건 데 대상을 수상할 줄은 꿈에도 몰랐다"며 "마치 꿈만 같고 너무 기쁘다"고 수상소감을 전했다.     JTO 관계자는 "다양한 아이디어와 스토리로 좋은 영상이 많이 들어와서 심사하는데 어려움이 있었다"며 "접수된 작품과 수상작은 유튜브에서 제주축제영상공모전을 검색하면 볼 수 있다"고 말했다.한편 도와 JTO는 제주축제영상공모전 2탄으로 '하태감독 콘테스트'를 진행하고 있다. 7월부터 9월까지 열리는 여름 축제를 담은 영상을 제작하면 되며, 모집기간은 9월 30일까지다. 고영진 기자 kyj@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회-카자흐스탄관광협회, 신규 우호교류협약 체결 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회-카자흐스탄관광협회, 신규 우호교류협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회-카자흐스탄관광협회, 신규 우호교류협약 체결 기자명 고병수 기자 입력 2018.07.16 18:08 수정 2018.07.16 18:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 김영진 제주도관광협회장은 중앙아시아 잠재시장 교두보 구축을 위해 17일~ 21일까지 카자흐스탄관광협회(회장 쉐이케노바 라쉬다)와 관광ㆍ문화ㆍ스포츠 교류 활성화를 위한 신규 우호교류협약 체결을 위해 카자흐스탄 알마티를 방문한다고 16일 밝혔다.카자흐스탄은 2014년 11월부터 양국간 무비자 협정에 따라 최근 연평균 27.1%의 카자흐스탄 방한관광객이 증가 하는 등 높은 성장세를 유지하고 있는 해외여행 잠재력이 높은 국가다. 2017년 10월기준으로 방한한 관광객은 3만6967명으로 전년 3만4068명에 대비 8% 증가하고 있는 등 최근 3년간 27.1% 방한 관광객이 증가하고 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 중국 개별관광객 유치 강화...온․오프 전방위 마케팅 추진 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 중국 개별관광객 유치 강화...온․오프 전방위 마케팅 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 중국 개별관광객 유치 강화...온․오프 전방위 마케팅 추진 기자명 고병수 기자 입력 2018.07.09 13:17 수정 2018.07.09 13:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 상하이 개별관광설명회 개최 및 뷰티풀로드 촬영 영상홍보 (제주=국제뉴스) 고병수 기자 = 지난해 사드사태 이후 급감했던 제주방문 중국 관광객이 지난 4월부터 유턴해 증가 추세로 전환함에 따라 제주도가 온․오프 전방위 마케팅 추진에 나선다.제주특별자치도는 중국 관광객이 개별관광객(FIT)를 중심으로 증가추세를 보이고 있는 등 중국 관광객들의 제주 방문 재개가 가시화됨에 따라 개별관광객 유치 활성화를 위한 전방위 마케팅을 추진한다고 9일 밝혔다. 道에 따르면 전년동기대비 1월 –83.7%, 2월 – 81.8%, 3월 –51.8%, 4월 52.7%, 5월 58.0%로 증가 추세라는 것.이에 중국 현지 유명 온라인 방송프로그램인 '뷰티풀로드(Beautiful Road)'의 제주 촬영을 지원해 총 8회(8~10분) 분량의 영상을 제작해 오는 7월 25일부터 9월 25일까지 2달 간 아이치이(愛奇藝), 소후(搜狐), 웨이보(微博) 등을 통해 방송할 예정이다. 이번 홍보 영상은 제주에서 2박 3일간 현지인과 어울려 여러 가지 체험을 하면서 새로운 친구, 사람들과 어울리는 뉴 라이프 체험을 컨셉으로 진행되는 등 중국 개별관광객의 다양한 관광욕구를 채워 줄 수 있을 것으로 전망되고 있다. 이에 앞서 지난 6월말에는 상하이에서 'Talk Talk JEJU, 제주 백문백답'을 주제로 관광설명회를 개최해 일반 소비자 130여명을 대상으로 직접 제주의 관광 매력을 소개해 참가자들로부터 큰 호응을 얻었다.또한 중국 여행정보검색 1위 사이트인 '마펑워'와 협의를 통해 제주방문 중국인 개별관광객들의 선호도, 관광패턴 분석을 위한 빅 데이터를 공유하기로 하고, 이를 바탕으로 제주관광의 질적성장 실현을 위해 상호 협력해 나가기로 한 바 있다.   관계자는 "중국인 해외 개별관광객의 80%가 빠링허우, 지우링허우 (8090년생)세대일 정도로 20~40대 젊은층이 해외여행을 주도함에 따라 그들에게 맞춤형 정보제공 및 홍보를 위한 마케팅을 지속적으로 추진하고 FIT·SIT 유치 활성화를 통해 중국 시장 체질개선을 위한 노력을 해 나가겠다"고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도‧제주관광공사, 관광 아카데미 상반기 수료식 개최 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도‧제주관광공사, 관광 아카데미 상반기 수료식 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도‧제주관광공사, 관광 아카데미 상반기 수료식 개최 기자명 고병수 기자 입력 2018.07.09 15:47 수정 2018.07.09 15:52 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 제주관광공사(사장 박홍배)는 제주관광 아카데미 상반기과정 수료식을 7일 오전 10시 제주웰컴센터 3층 대회의실에서 개최했다고 9일 밝혔다.2018년 제주관광 아카데미는 기존 제주관광 공통 교육과정인 기본과정 외에 전문가과정 및 글로벌과정을 새롭게 추가해 기본(정규)→전문가(신규)→글로벌(신규)의 단계별 교육 프로세스를 통해 체계적인 관광 전문교육을 추진해왔다.지난 4월 5일부터 7월 7일까지 매주 토요일 총 68시간에 걸쳐 진행된 이번교육은 제주의 역사, 자연, 문화 등 제주관광 공통 교육과정을 시작으로 지역의 콘텐츠 자원을 활용한 관광 상품 개발, 무슬림 및 동남아 관광객 유치를 위한 글로벌 제주 마케팅 등 심도있는 수업을 통해 교육생으로부터 좋은 반응을 얻었다.특히 7일 진행된 제주관광 아카데미 글로벌과정 체험교육에서는 수강생들이 이슬람 기도실인 마스지드를 방문해 김원택 이맘(이슬람 성직자)이 풀어내는 이슬람 이야기를 경청하고, 도내 무슬림 학생들이 준비한 할랄 음식 체험 등 이슬람 문화를 이해하는 시간을 가졌다. 한편 제주관광 아카데미 상반기 과정은 기본과정 31명, 전문가과정 32명, 글로벌과정 28명의 수강생을 배출했으며, 이들 중 전 과정 수료 대상자는 17명이다.제주관광 아카데미는 상반기 1회, 하반기 1회 진행되며, 오는 9월부터 11월까지 하반기 과정을 운영할 예정이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 카자흐스탄관광협회와 우호교류협약 체결 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 카자흐스탄관광협회와 우호교류협약 체결 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회, 카자흐스탄관광협회와 우호교류협약 체결 편집팀 iheadline@hanmail.net 승인 2018.07.16 18:39 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 김영진 제주특별자치도관광협회장. 김영진 제주특별자치도관광협회장은 중앙아시아 잠재시장 교두보 구축을 위해 17일부터 21일까지 카자흐스탄 알마티를 방문해 카자흐스탄관광협회와 관광.문화.스포츠교류 활성화를 위한 우호교류협약을 체결한다고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광버스 쏠라티로 떠나는 여행 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-11 12:45 (화) 처음으로 로그인 회원가입 이전 다음 제주도 관광버스 쏠라티로 떠나는 여행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME IT&amp;생활 제주도 관광버스 쏠라티로 떠나는 여행 홍채희 기자 승인 2018.07.06 11:25 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도는 가족끼리, 친구끼리, 연인끼리 방문하기 좋은 여행지이며, 볼 거리 먹 거리 즐길 거리가 다양한 곳이다. 제주도에 가면 올레길을 걷거나, 해안도로 드라이브를 할 수 있고, 바닷가에서 해수욕을 즐길 수도 있다. 한라산 등반을 하는 사람도 많은데, 여행지가 굉장히 다양하고 호텔, 펜션 등도 역시 다양하다.제주도에 갈 때는 개인으로 자유여행을 가는 경우도 많고, 아는 사람끼리, 혹은 단체로 관광을 가는 경우도 많다. 단체로 떠날 경우 비용이 더 절감될 수 있으며, 직접 운전하고 숙박 항공 등을 알아볼 필요 없이 편하게 제주도를 둘러볼 수 있다.특히 가족끼리 제주도여행을 갈 때 제주도 관광버스를 타고 움직이는 게 편한데, 단체여행은 가족단위로 떠날 때 유용하므로 다 같이 유명 관광지를 둘러보고, 유명 맛집을 둘러보기 좋다.이 가운데 제주도 쏠라티는 단체여행 프로그램을 제공 중이다. 해당 프로그램 이용 시 제주도 버스투어를 통해 가봐야 할 곳을 놓치지 않고 다녀올 수 있다. 제주도는 관광지가 많아서 유명한 곳만 골라서 가도 3박4일 이상의 일정이 소요된다. 그래서 혼자 코스를 짜는 게 어려울 수 있으며, 여행 동선에 맞춘 식당, 숙소를 결정하기 어려울 수 있다. 제주도 관광버스를 타고 단체로 여행을 가면 놓쳐서는 안 될 곳을 꼭 들를 수 있으며, 직접 운전하거나 대중교통을 이용할 필요가 없어 편안하게 이동하고 고급스러운 숙박시설에서 머물 수 있다. 그러면서도 비용 절감이 되므로 특히 부모님들 효도 관광을 보내드리거나, 결혼 후 양가 집안이 다 같이 여행을 갈 때 적합하다.제주도 쏠라티는 다양한 관광 프로그램을 제공하고 있으며, 일정에 맞는 알찬 계획을 통해 제주도 여행 후 좋은 추억을 남길 수 있게 도와주고 있다. 자세한 사항은 대표번호, 블로그, 제주도홍반장 검색을 통해 확인할 수 있다. 저작권자 © 데일리시큐 무단전재 및 재배포 금지 홍채희 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 국제사이버보안인증협회 창립총회 및 발대식 개최 국제사이버보안인증협회 창립총회 및 발대식 개최 2 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 3 한수원-한전KDN, 정규직 채용전환 인턴에 대한 미지급 퇴직금만 2억여 원 4 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 5 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 오늘이 주요뉴스 시스코 제품 보안취약점 주의...최신 버전 사용해야 주의 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 긴급속보 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 정책 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 보안자료 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 3교시 개인정보 유·노출 예방 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 2교시 개인정보의 안전한 관리 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재-1교시 개인정보보호법 주요 내용 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-3교시 공공기관 특화제도 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-2교시 공공기관 관련 개인정보 유출사례분석 및 사후발생 대처 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
+  </si>
+  <si>
+    <t>[미식산책] 제주도 여름철 인기관광지 해수욕장과 보양식 여행 &lt; 비즈 &lt; 기사 &lt; Food &lt; 기사본문 - 소믈리에타임즈 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-11 12:45 (화) 로그인 로그인 회원가입 전체메뉴 버튼 Wine Food Drink Life People TV 칼럼 미수입 와인 행사/Event 전시/박람회 기사검색 검색 실시간 랭킹 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 9 제9회 한국와인대상 품평회 성료, “한국와인, 이제는 세계로 나아갈 때” 10 프리미엄 캔와인 '웨스트와일더', 안정환 &amp; 이혜원 부부와 콜라보한 스페셜 에디션 선보여 더보기 본문영역 이전 기사보기 다음 기사보기 [미식산책] 제주도 여름철 인기관광지 해수욕장과 보양식 여행 본문 글씨 줄이기 본문 글씨 키우기 바로가기 다른 공유 찾기 스크롤 이동 상태바 현재위치 홈 Food 기사 기자명 김경현 기자 입력 2018.07.12 09:04 수정 2018.07.12 17:20 [미식산책] 제주도 여름철 인기관광지 해수욕장과 보양식 여행 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 기사스크랩하기 메일보내기 닫기 최근 한국관광공사에서 발표한 결과에 따르면, 여름철 우리나라 국민이 가장 좋아하는 관광지는 해수욕장으로 밝혀졌다. 전국 해수욕장 50곳 중 협재해변이 포함된 제주도가 상위권을 기록했다. 맛집으로는 계절 보양식이나 여름특화 음식점들이 지역별로 인기 목적지로 나타났다.제주시 공항 근처 노형동에 위치한 ‘착한집’은 고단백 보양식 메뉴인 ‘갈갈조림’ 원조 맛집이다. 제주갈치와 흑돼지갈비를 함께 넣고 조린 갈갈조림은 착한집의 대표메뉴로 제주도민 사이에서도 크게 인기를 끌고 있으며, 여름철 보양식으로도 안성맞춤이다. ▲ 제주도 여름철 인기관광지 해수욕장과 보양식 &lt;사진=제주 착한집&gt;'50년 갈치인생'을 슬로건으로 내세우는 제주도 맛집 착한집의 대표는 제일 싱싱한 갈치만을 제공한다는 자부심이 대단하다. 그는 매일 직접 공수해온 제주 은갈치와 고등어, 옥돔, 전복, 흑돼지를 신안 명품 천일염을 사용해 귀한 손님께 대접하는 마음으로 주문과 동시에 조리한다고 밝혔다.제주도 자연산 식재료를 회, 구이, 조림 등으로 다양하게 즐길 수 있는 착한집은 제주시 공항 근처에 위치해 제주도 여행의 첫 일정 또는 마무리 일정으로 선택하기 편리하다. 제주공항 맛집 착한집은 대형 주차공간은 물론 넓은 규모의 단체석이 준비되어 있으나 웨이팅이 길어 사전예약은 필수다. 착한집은 홈페이지 예약 후 방문하면 고등어구이 무료제공 이벤트를 진행 중이다.소믈리에타임즈 김경현 기자 sultang100g@nate.com 김경현 기자 sultang100g@nate.com 다른 기사 보기 기사공유 저작권자 © 소믈리에타임즈 무단전재 및 재배포 금지 관련기사 오늘 굿데이, 서울 추억의 골목 맛집을 찾아라! 서울 토박이가 추천하는 진짜 맛집은? 남대문시장, 장충동, 을지로 맛집 제주맥주, 서울 연남동 팝업스토어 시작으로 전국 마케팅 본격화 맛있는 녀석들, 제주도 특집! 제주도에 가면 꼭 먹어야 할 음식은? 고기국수와 갈치구이 맛집 쟈뎅, ‘메타넷과 함께하는 장애인 바리스타 대회’ 공식 협찬 치즈 전문가가 추천한 치즈를 보관할 때 피해야 하는 3가지 방법은? 할리우드 A-리스트 여배우들이 먹는 식단은? ② 제시카 차스테인부터 에바 멘데스까지 최신뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상... 세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 현업에서 활동중인 소믈리에들 모습 포토뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상... 세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 인기뉴스 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 오늘의 추천 [오늘의 추천] 션 태커리 오리온 1997 "와인메이커로서 나의 유일한 목적은 즐거움을 만드는 것" [오늘의 추천] 라포스톨, 르 쁘띠 끌로 아팔타 2018 칠레에서 21세기의 가장 위대한 콜드 빈티지 중 하나로 기억될 것 [오늘의 추천] 알람브레 모스카텔 드 세투발 2017 대한민국 주류대상 주정강화 와인부문 대상 3회 수상 인기 키워드 샴페인 미수입 와인 전통주 시음회 프랑스 양재혁 소믈리에 허브노트 미수입 와인 DOMAINE RICARDELLE DE LAUTREC, SAUVIGNON MARIN CUVEE RICARDELLE White Wine 와인리뷰 [알면 더 맛있는] 벨 꼴레(Bel Colle) 와인, 바롤로에 뿌리를 둔 떠오르는 신성 벨 꼴레 랑게 DOC 파보리타 2020, 벨 꼴레 바르바레스코 DOCG 빠요레 2018 [알면 더 맛있는] 라 크레마, "와인의 명성은 만들어지는 것이 아닌 얻어지는 것이다" 라 크레마 소노마 코스트 샤도네이, 피노 누아 2종 [알면 더 맛있는] 나파밸리의 이탈리안 해리티지 와인, '카모미' 4종 '카모미(Ca’Momi)' 4종 Photo [기고-최염규발행인] 달라진 소믈리에들의 위상... 세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" 오스트리아 와인 업계, 2022 빈티지 “수확량은 적지만 훌륭한 품질의 포도 예상” 2022 월드 베스트 바, '바르셀로나 파라디소(Paradiso)' 1위 차지 행사/EVENT 시음회 이탈리안 이노베이션 Italian Innovation 10월 27일 PM 7시 ~ 9시, 에프터 나인 앤 와인 품평회 2022년 제9회 한국와인대상 9월 30일, 영동와인터널, 10월 6일 시상식 축제 및 페스티벌 JW 메리어트 동대문 2022 와인 앤 버스커 10월 1일~3일, JW 메리어트 동대문 축제 및 페스티벌 2022 광명동굴 대한민국 와인페스티벌 9월 30일~10월 3일, 광명동굴에서 개최 축제 및 페스티벌 청라 뮤직 &amp; 와인 페스티벌 9월 24일~25일, 청라호수공원 야외음악당 일대 전시 및 박람회 주류 베를린 바 컨벤트 2022(Bar Convent Berlin 2022, BCB) 2022년 10월 10일(월)~12일(수), Exhibition Centre Berlin 와인 프로바인(Prowein) 2023 2023년 3월 19일~23일, 독일 메쎄 뒤셀도르프(Messe Dusseldorf) 주류 2022 남도 전통주 품평회 수상작 특별전 8월 25일~28일, 전통주갤러리 주류 2022 서울바앤스피릿쇼 9월 15일~17일, 코엑스 3층 D홀 와인 2022 '대전국제와인페스티벌' 대전컨벤션센터(DCC), 8월 26일~28일 인기기사 [금주의 주류 신상] 10월 첫째주 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 론칭 및 프로모션 기사 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 호주 와인 윈즈(Wynns), 페어링을 위한 미디움 바디 와인 4종 국내 론칭 [김대리가 소개한다] 붉은 단풍의 계절, 가을에 즐기는 대표 '샤또뇌프 뒤 빠프 와인' 추천 230년 역사의 프랑스 샴페인 명가, '슈를랭(Champagne Cheurlin)' 캘리포니아 와인 업계 혁신의 대명사 '션 태커리'의 숨겨진 보석 5종, 국내 최초 공개 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울시 성동구 성수이로 24길 50 희은빌딩 별관4층 대표전화 : 02-499-0110 팩스 : 02-461-0110 청소년보호책임자 : 최염규 법인명 : 씨앤제이글로벌 제호 : 소믈리에타임즈 등록번호 : 서울 아 03477 등록일 : 2014년 12월 10일 발행일 : 2015년 3월 13일 발행인 : 최염규 편집인 : 김동열 소믈리에타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 소믈리에타임즈. All rights reserved. mail to stpress@sommeliertimes.com 위로 전체메뉴 전체기사 Wine Food Drink Life People 오늘의 추천 미수입와인 행사/EVENT 전시 및 박람회 와인리뷰 포토갤러리 로그인 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 中개별관광객 유치 관광사절단 파견 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 中개별관광객 유치 관광사절단 파견 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 中개별관광객 유치 관광사절단 파견 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.07.01 12:04 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 지난 27일부터 29일까지 3일 간 전성태 행정부지사를 단장으로 하는 제주 관광사절단이 중국북경과 상해시를 방문해 정부기관과의 관광관련 공동 협력방안을 논의했다고 밝혔다.이번 관광홍보 활동은 제주 방문 관광객이 다수를 차지하고 있는 북경과 상해지역 유관기관을 방문해 관광관련 정보를 공유하고 빅 데이터를 활용해 제주방문 중국관광객들에게 맞춤형 마케팅을 하기위해 추진됐다.27일에는 북경에 소재한 중국여유연구원을 방문해 따이빈(戴斌)원장과 면담을 갖고 제주방문 개별관광객 유치 활성화 방안과 관광통계분야 정보공유를 통한 공동협력 추진방안에 대해 논의했다.이 자리에서 전 부지사는 "중국여유연구원은 지난 2015년 제주연구원과 교류협력을 맺고 제주-중국과의 관광발전을 위해 많은 협력을 해오고 있다면서 중앙정부 연구기관으로 국가관광 데이터센터도 겸하고 있으므로 관광통계 분야 협력을 통해 제주관광발전을 위해 도움을 주실 것을 희망한다"고 전했다.따이빈 연구원장은 "이에 대해 제주가 갖고 있는 해양문화, 쇼핑, 올레코스, 자연환경 그리고 음식문화를 통한 중국관광객들에게 옛날전통과 현대문화를 결합한 제주다움을 잘 보여줄 수 있는 인프라구축이 필요하다면서 제주의 관광발전을 위해 도움을 줄 수 있는 방안을 모색해 나가는데 협력하겠다"고 답했다.29일에는 상해시인민정부를 방문해 천췬(陈群)부시장, 상해시여유국 청메이홍(程梅紅)부국장, 상해시 리우광용(劉光勇)외판 부주임과의 면담을 갖고 양 지역간의 상호발전을 위한 공동노력 방안에 대해 논의했다.전 부지사는 "상해시와 제주도는 2009년부터 우호도시로 교류하면서 청소년 교류 등 다양한 분야에서 교류를 하고 있는 지역으로 앞으로도 양 지역간의 상호교류가 활발하게 진행되기를 기대한다"면서 "제주도와 가까운 지역에 위치하고 있어 베이징 다음으로 제주를 찾는 관광객이 많은 상해시와 관광발전을 위해 상호간에 적극 협력해 나가기를 희망한다"고 말했다. 천췬 상해시 부시장은 "상해시도 관광객들이 많이 찾는 지역으로 관광발전에 많은 관심을 갖고 있으며 제주의 해외관광객 유치 마케팅 노하우를 벤치마킹하고 싶다"면서 "문화, 청소년, 인문 교류는 물론 양 지역간의 관광발전을 위한 공동 협력이 필요하다는데 공감한다"고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 관광객에 환경기여금 부과 추진...2020년 시행 예정 회원가입 로그인 YTN YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 통합검색 사이언스투데이 프로그램 캠페인 짤막과학 편성표 채널안내 방송정보 시청자코너 코로나19 날씨 ㆍ프로그램 다큐멘터리 드론히어로즈 : 국가대표 드론히어로즈 더 메이커스 브라보 K-사이언티스트 다큐S프라임 뷰티풀 코리아 교양정보 톡으로 나누는 과학 이야기, 과톡 성공 경영 키워드 ESG 코리아 성공팁 과학톡 최강기업 황금나침반 핫클립 베스트 ㆍ사이언스 스페셜 ㆍ기획 ㆍ해외 프로그램 ㆍ종방 프로그램 ㆍ핫클립 ㆍ카드뉴스 제주도, 관광객에 환경기여금 부과 추진...2020년 시행 예정 [2018-07-04 16:08:06] 목록 | 프린트 [앵커] 제주도가 자연환경 보전 등을 위해 관광객에게 이르면 2020년부터 '환경보전기여금' 을 부과하기로 했습니다. 숙박 시 1인당 천500원, 렌터카 하루 5천 원 등인데, 추진 과정에서 적잖은 논란이 예상되고 있습니다. 유종민 기자의 보도입니다. [기자] 제주도를 찾은 관광객은 2013년 처음으로 천만 명 시대를 연 이후 계속 늘어 지난해에는 천470만 명이 찾았습니다. 이렇게 관광객이 급증하면서 생활폐기물과 하수 발생량이 증가하고, 대기오염과 교통혼잡 등 환경처리비용이 지속해서 늘었습니다. 용역 결과 매년 2천790억 원의 생활폐기물 처리비용이 발생하고 있다고 나왔습니다. 이 때문에 수용 용량이 한계에 도달했다는 우려 속에 환경보전기여금 제도 도입 필요성이 제기돼 왔는데, 자연환경 보전을 위한 재원 마련을 위해 관광객에게 환경기여금을 부과하기로 했습니다. [고철주 / 제주도 환경정책과장 : 관광객과 관련 업계 등 설문조사와 의견을 들어본 결과 제도 도입이 필요하다. 기여금이 징수되면 제주 환경보전과 생태 관광을 활성화하고 여러 가지 환경 새선 사업에 쓰일 예정입니다.] 기본 부과금은 숙박 시 1인당 천500원, 렌터카 하루 5천 원 전세버스 이용요금에 5%를 부과할 예정입니다. 경차나 전기차는 50% 감면됩니다. 제도가 시행되면 관광객 1인당 평균 8,170원을 부담하게 됩니다. 제주도는 조례를 제정하고, 징수 시스템을 마련해 2020년부터 시행한다는 계획입니다. 하지만 제도 도입을 위해서는 제주특별법 개정을 통해 법적 근거를 마련해야 하고 다른 지역과의 형평성 문제 등으로 인해 적잖은 논란이 예상되고 있습니다. YTN 유종민[yoojm@ytn.co.kr]입니다. - Copyright ⓒ YTN science, 무단 전재 및 재배포 금지 - 과학기술정보통신부 과학기술정책연구원 고등과학원 한국과학창의재단 한국과학기술단체총연합회 한국원자력안전기술원 사이언스올 산업연구원 한국연구재단 한국과학기술기획평가원 한국과학기술원 광주과학기술원 한국원자력통제기술원 한국천문연구원 한국전자통신연구원 한국과학기술연구원 한국생명공학연구원 한국식품연구원 한국기초과학지원연구원 한국한의학연구원 한국기계연구원 기초과학연구원 한국화학연구원 한국철도기술연구원 한국항공우주연구원 한국원자력연구원 한국표준과학연구원 한국에너지기술연구원 한국과학기술정보연구원 한국해양과학기술원 한국과학기술한림원 한국건설기술연구원 한국지질자원연구원 대덕연구개발특구 한국생산기술연구원 한국전기연구원 한국재료연구원 국립과천과학관 한국여성발명협회 국립중앙과학관 한국발명진흥회 한국여성과학기술인육성재단 국립대구과학관 국립광주과학관 국립부산과학관 10.11.(화)| 강원도 경기도 경상남도 경상북도 광주광역시 대구광역시 대전광역시 부산광역시 서울특별시 세종특별자치도 울산광역시 인천광역시 전라남도 전라북도 제주특별자치도 충청남도 충청북도 현재 13.0℃ 내일 오전 10℃ 내일 오후 18℃ 현재 13.7℃ 내일 오전 10℃ 내일 오후 19℃ 현재 18.7℃ 내일 오전 15℃ 내일 오후 21℃ 현재 15.6℃ 내일 오전 12℃ 내일 오후 19℃ 현재 17.1℃ 내일 오전 13℃ 내일 오후 21℃ 현재 15.6℃ 내일 오전 12℃ 내일 오후 19℃ 현재 15.5℃ 내일 오전 11℃ 내일 오후 19℃ 현재 18.7℃ 내일 오전 15℃ 내일 오후 21℃ 현재 13.2℃ 내일 오전 12℃ 내일 오후 19℃ 현재 15.5℃ 내일 오전 11℃ 내일 오후 19℃ 현재 16.4℃ 내일 오전 13℃ 내일 오후 20℃ 현재 12.7℃ 내일 오전 13℃ 내일 오후 17℃ 현재 17.1℃ 내일 오전 13℃ 내일 오후 21℃ 현재 15.7℃ 내일 오전 12℃ 내일 오후 19℃ 현재 18.5℃ 내일 오전 16℃ 내일 오후 20℃ 현재 15.5℃ 내일 오전 11℃ 내일 오후 19℃ 현재 14.3℃ 내일 오전 12℃ 내일 오후 19℃ 12:00닥터지바고 혈관 속 죽음의 ... 13:00성공팁 과학톡 최강기업 &lt;18... 13:30사이언스 투데이 오전 (2) 2022년 YTN 사이언스 하반기 외주제작... [종료] YTN사이언스 구매 프로그램 공모 VOD TOP 5 코로나19 국내 '지배종' BA.5 검출률 ... 고물가·고환율에 문구완구 거리 '썰렁... 산업부 "에너지 위기 극복 공공기관 ... 유증상 학생, 중간고사·수능 별도 고... '국민차' 쏘나타 수년째 '시동 꺼짐'.... UPDATE NEWS [기술자들] 과거와 미래를 책임지는 기술 [황금나침반] 상상이 현실이 되는 대한... 모빌리티 혁명, 도심 항공 교통 UAM [다시보기] 10월 7일 (금) 오후 사이언... [사이언스 in Art] 세계 미술품 한 자리... YTN 사이언스 소개 TV광고 사업제휴 개인정보 취급방침 이용약관 청소년보호정책 공모/모집 안내 저작물 침해신고 성폭력 신고센터 인터넷 이용 도움말 시청자 프로그램 판매 사이트맵 CONTACT US 제호: YTN 사이언스 l 서울특별시 마포구 상암산로76(상암동) l 등록번호: 서울, 아54285 l 등록일자: 2022.06.03 발행일자: 2013.03.13 l 대표전화: 02-398-8000 l 발행인: 우장균 l 편집인: 김재형 l 청소년보호책임자: 정철민 [기사배열 기본방침] 모든 콘텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재 복사배포를 금합니다. Copyright ⒞ YTN science all rights reserved. Family Site YTN YTN2 YTN 라디오 YTN dmb 남산서울타워</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 5·6월 베스트관광인 선정 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 5·6월 베스트관광인 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 5·6월 베스트관광인 선정 문유미 기자 승인 2018.07.11 15:50 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이찬우, 박성훈. 제주특별자치도관광협회(회장 김영진)는 지난 10일 제주종합비즈니스센터에서 5월과 6월 베스트 관광인으로 박성훈 퍼시픽마리나 부장과 이찬우 ㈜탐라식품 본부장을 각각 선정하고, 선정패와 친절 키움 꽃 화분을 전달했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -469,9 +580,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -481,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +666,221 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
